--- a/Fairness/CB/ConductToRegister/Base/prediction/66/enrollment_likelihood_66.xlsx
+++ b/Fairness/CB/ConductToRegister/Base/prediction/66/enrollment_likelihood_66.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX474"/>
+  <dimension ref="A1:AY474"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,6 +685,11 @@
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
+          <t>total_payment</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
           <t>enrollment_likelihood</t>
         </is>
       </c>
@@ -693,9 +698,7 @@
       <c r="A2" t="b">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -884,7 +887,10 @@
         <v>400</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.4741446863508592</v>
+        <v>6000</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.7931377192951168</v>
       </c>
     </row>
     <row r="3">
@@ -1082,16 +1088,17 @@
         <v>650</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.9680987119194223</v>
+        <v>9750</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0.4742032416397879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="b">
         <v>0</v>
       </c>
-      <c r="B4" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
         <v>4821.6</v>
       </c>
@@ -1276,16 +1283,17 @@
         <v>350</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.02671083033070924</v>
+        <v>5250</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0.1254307370116074</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="b">
         <v>0</v>
       </c>
-      <c r="B5" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
         <v>6199.2</v>
       </c>
@@ -1460,16 +1468,17 @@
         <v>450</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.06348445192770595</v>
+        <v>6750</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0.4446263704456258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="b">
         <v>0</v>
       </c>
-      <c r="B6" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>8954.4</v>
       </c>
@@ -1654,16 +1663,17 @@
         <v>650</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02026928824017924</v>
+        <v>9750</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0.1810489943094042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="b">
         <v>0</v>
       </c>
-      <c r="B7" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
         <v>8265.6</v>
       </c>
@@ -1842,16 +1852,17 @@
         <v>600</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1497643353991779</v>
+        <v>9000</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0.5963684211093812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="b">
         <v>0</v>
       </c>
-      <c r="B8" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
         <v>8265.6</v>
       </c>
@@ -2040,16 +2051,17 @@
         <v>600</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.04350004394633866</v>
+        <v>9000</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0.5450596496317884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="b">
         <v>0</v>
       </c>
-      <c r="B9" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -2234,16 +2246,17 @@
         <v>700</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.3400879370307114</v>
+        <v>10500</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0.6196279519732172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="b">
         <v>0</v>
       </c>
-      <c r="B10" t="n">
-        <v>11800</v>
-      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
         <v>11709.6</v>
       </c>
@@ -2428,7 +2441,10 @@
         <v>850</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.1013399665613027</v>
+        <v>12750</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0.0832229137198581</v>
       </c>
     </row>
     <row r="11">
@@ -2626,7 +2642,10 @@
         <v>600</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.9766473173372779</v>
+        <v>9000</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0.7802461890061136</v>
       </c>
     </row>
     <row r="12">
@@ -2824,16 +2843,17 @@
         <v>650</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.9925922008968184</v>
+        <v>9750</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0.8909358648462198</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="b">
         <v>0</v>
       </c>
-      <c r="B13" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
         <v>4821.6</v>
       </c>
@@ -3018,16 +3038,17 @@
         <v>350</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.05503416909229568</v>
+        <v>5250</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0.2833252205998802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="b">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
         <v>4821.6</v>
       </c>
@@ -3212,7 +3233,10 @@
         <v>350</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1370966734476869</v>
+        <v>5250</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0.5039033910791827</v>
       </c>
     </row>
     <row r="15">
@@ -3410,16 +3434,17 @@
         <v>600</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.4331672802378647</v>
+        <v>9000</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0.851260954238773</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="b">
         <v>0</v>
       </c>
-      <c r="B16" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -3602,16 +3627,17 @@
         <v>700</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.1105021630629351</v>
+        <v>10500</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0.3284588646241844</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="b">
         <v>0</v>
       </c>
-      <c r="B17" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
         <v>6888</v>
       </c>
@@ -3796,16 +3822,17 @@
         <v>500</v>
       </c>
       <c r="AX17" t="n">
-        <v>0.03591808820959864</v>
+        <v>7500</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0.1591630299349725</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="b">
         <v>0</v>
       </c>
-      <c r="B18" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
         <v>4821.6</v>
       </c>
@@ -3990,16 +4017,17 @@
         <v>350</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.05821211006868261</v>
+        <v>5250</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0.2132357873636041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="b">
         <v>0</v>
       </c>
-      <c r="B19" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -4188,7 +4216,10 @@
         <v>400</v>
       </c>
       <c r="AX19" t="n">
-        <v>0.1009873115802292</v>
+        <v>6000</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.4414465533213807</v>
       </c>
     </row>
     <row r="20">
@@ -4386,7 +4417,10 @@
         <v>650</v>
       </c>
       <c r="AX20" t="n">
-        <v>0.9675914829730321</v>
+        <v>9750</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0.6016123844656804</v>
       </c>
     </row>
     <row r="21">
@@ -4584,16 +4618,17 @@
         <v>600</v>
       </c>
       <c r="AX21" t="n">
-        <v>0.2478921433897296</v>
+        <v>9000</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0.740136601974958</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="b">
         <v>0</v>
       </c>
-      <c r="B22" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
         <v>6199.2</v>
       </c>
@@ -4778,16 +4813,17 @@
         <v>450</v>
       </c>
       <c r="AX22" t="n">
-        <v>0.01670570781174975</v>
+        <v>6750</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0.1356562967475014</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="b">
         <v>0</v>
       </c>
-      <c r="B23" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
         <v>6199.2</v>
       </c>
@@ -4972,16 +5008,17 @@
         <v>450</v>
       </c>
       <c r="AX23" t="n">
-        <v>0.5450104759600494</v>
+        <v>6750</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0.8229933910010461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="b">
         <v>0</v>
       </c>
-      <c r="B24" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
         <v>4821.6</v>
       </c>
@@ -5170,7 +5207,10 @@
         <v>350</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.6921397719345049</v>
+        <v>5250</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0.7437062652019426</v>
       </c>
     </row>
     <row r="25">
@@ -5368,7 +5408,10 @@
         <v>400</v>
       </c>
       <c r="AX25" t="n">
-        <v>0.9640800314439597</v>
+        <v>6000</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0.1546367880903987</v>
       </c>
     </row>
     <row r="26">
@@ -5566,7 +5609,10 @@
         <v>400</v>
       </c>
       <c r="AX26" t="n">
-        <v>0.9993126192391411</v>
+        <v>6000</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0.7594086279034521</v>
       </c>
     </row>
     <row r="27">
@@ -5764,16 +5810,17 @@
         <v>600</v>
       </c>
       <c r="AX27" t="n">
-        <v>0.9587042665507512</v>
+        <v>9000</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0.6027992027328095</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="b">
         <v>0</v>
       </c>
-      <c r="B28" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
         <v>4821.6</v>
       </c>
@@ -5958,16 +6005,17 @@
         <v>350</v>
       </c>
       <c r="AX28" t="n">
-        <v>0.01654754697385871</v>
+        <v>5250</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0.0961450013680091</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="b">
         <v>0</v>
       </c>
-      <c r="B29" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
         <v>6199.2</v>
       </c>
@@ -6152,16 +6200,17 @@
         <v>450</v>
       </c>
       <c r="AX29" t="n">
-        <v>0.2777236700479361</v>
+        <v>6750</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0.6621715766883778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="b">
         <v>0</v>
       </c>
-      <c r="B30" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
         <v>6888</v>
       </c>
@@ -6346,16 +6395,17 @@
         <v>500</v>
       </c>
       <c r="AX30" t="n">
-        <v>0.2265745321767655</v>
+        <v>7500</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0.4569849366263479</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="b">
         <v>0</v>
       </c>
-      <c r="B31" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
         <v>8954.4</v>
       </c>
@@ -6540,7 +6590,10 @@
         <v>650</v>
       </c>
       <c r="AX31" t="n">
-        <v>0.06110895066904332</v>
+        <v>9750</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0.2033779976689384</v>
       </c>
     </row>
     <row r="32">
@@ -6738,7 +6791,10 @@
         <v>700</v>
       </c>
       <c r="AX32" t="n">
-        <v>0.4626296641491631</v>
+        <v>10500</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0.6262062114144521</v>
       </c>
     </row>
     <row r="33">
@@ -6936,7 +6992,10 @@
         <v>600</v>
       </c>
       <c r="AX33" t="n">
-        <v>0.5326308189199817</v>
+        <v>9000</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>0.6934742403528917</v>
       </c>
     </row>
     <row r="34">
@@ -7134,16 +7193,17 @@
         <v>450</v>
       </c>
       <c r="AX34" t="n">
-        <v>0.9651726124644574</v>
+        <v>6750</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0.6124874909481669</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="b">
         <v>0</v>
       </c>
-      <c r="B35" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
         <v>4821.6</v>
       </c>
@@ -7328,16 +7388,17 @@
         <v>350</v>
       </c>
       <c r="AX35" t="n">
-        <v>0.09137759143266104</v>
+        <v>5250</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>0.3984372538788508</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="b">
         <v>0</v>
       </c>
-      <c r="B36" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -7522,16 +7583,17 @@
         <v>400</v>
       </c>
       <c r="AX36" t="n">
-        <v>0.1747751713119799</v>
+        <v>6000</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>0.6324945053741217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="b">
         <v>0</v>
       </c>
-      <c r="B37" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
         <v>6199.2</v>
       </c>
@@ -7716,7 +7778,10 @@
         <v>450</v>
       </c>
       <c r="AX37" t="n">
-        <v>0.0594409746908259</v>
+        <v>6750</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0.4006652183058528</v>
       </c>
     </row>
     <row r="38">
@@ -7914,7 +7979,10 @@
         <v>600</v>
       </c>
       <c r="AX38" t="n">
-        <v>0.2115565228120208</v>
+        <v>9000</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0.6751219886890618</v>
       </c>
     </row>
     <row r="39">
@@ -8112,16 +8180,17 @@
         <v>600</v>
       </c>
       <c r="AX39" t="n">
-        <v>0.5775129235645735</v>
+        <v>9000</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>0.8400010446067433</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="b">
         <v>0</v>
       </c>
-      <c r="B40" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
         <v>8954.4</v>
       </c>
@@ -8306,16 +8375,17 @@
         <v>650</v>
       </c>
       <c r="AX40" t="n">
-        <v>0.2477798103651692</v>
+        <v>9750</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>0.7460842246509808</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="b">
         <v>0</v>
       </c>
-      <c r="B41" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -8500,16 +8570,17 @@
         <v>400</v>
       </c>
       <c r="AX41" t="n">
-        <v>0.1637211805062938</v>
+        <v>6000</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0.5985254919542625</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="b">
         <v>0</v>
       </c>
-      <c r="B42" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
         <v>8265.6</v>
       </c>
@@ -8694,7 +8765,10 @@
         <v>600</v>
       </c>
       <c r="AX42" t="n">
-        <v>0.1503663650886241</v>
+        <v>9000</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>0.6369323635844695</v>
       </c>
     </row>
     <row r="43">
@@ -8892,16 +8966,17 @@
         <v>600</v>
       </c>
       <c r="AX43" t="n">
-        <v>0.9883389185273858</v>
+        <v>9000</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>0.7805695257327392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="b">
         <v>0</v>
       </c>
-      <c r="B44" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
         <v>6199.2</v>
       </c>
@@ -9086,16 +9161,17 @@
         <v>450</v>
       </c>
       <c r="AX44" t="n">
-        <v>0.01708336857226835</v>
+        <v>6750</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>0.2632025405028623</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="b">
         <v>0</v>
       </c>
-      <c r="B45" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
         <v>6199.2</v>
       </c>
@@ -9280,7 +9356,10 @@
         <v>450</v>
       </c>
       <c r="AX45" t="n">
-        <v>0.05933604611243047</v>
+        <v>6750</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>0.4714293140487876</v>
       </c>
     </row>
     <row r="46">
@@ -9478,16 +9557,17 @@
         <v>650</v>
       </c>
       <c r="AX46" t="n">
-        <v>0.9608480995652956</v>
+        <v>9750</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>0.5986408190169054</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="b">
         <v>0</v>
       </c>
-      <c r="B47" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -9672,7 +9752,10 @@
         <v>400</v>
       </c>
       <c r="AX47" t="n">
-        <v>0.1823416472712918</v>
+        <v>6000</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>0.698741320118603</v>
       </c>
     </row>
     <row r="48">
@@ -9870,16 +9953,17 @@
         <v>550</v>
       </c>
       <c r="AX48" t="n">
-        <v>0.456826631420279</v>
+        <v>8250</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>0.6861245859583869</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="b">
         <v>0</v>
       </c>
-      <c r="B49" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
         <v>8265.6</v>
       </c>
@@ -10064,16 +10148,17 @@
         <v>600</v>
       </c>
       <c r="AX49" t="n">
-        <v>0.01972972826648742</v>
+        <v>9000</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>0.2626543640289327</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="b">
         <v>0</v>
       </c>
-      <c r="B50" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
         <v>8265.6</v>
       </c>
@@ -10256,16 +10341,17 @@
         <v>600</v>
       </c>
       <c r="AX50" t="n">
-        <v>0.1001651854717089</v>
+        <v>9000</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>0.5311498987879405</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="b">
         <v>0</v>
       </c>
-      <c r="B51" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
         <v>6199.2</v>
       </c>
@@ -10450,7 +10536,10 @@
         <v>450</v>
       </c>
       <c r="AX51" t="n">
-        <v>0.2468786994270122</v>
+        <v>6750</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>0.6079817227574394</v>
       </c>
     </row>
     <row r="52">
@@ -10648,16 +10737,17 @@
         <v>850</v>
       </c>
       <c r="AX52" t="n">
-        <v>0.8950070187035665</v>
+        <v>12750</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>0.7727826185181181</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="b">
         <v>0</v>
       </c>
-      <c r="B53" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
         <v>8265.6</v>
       </c>
@@ -10842,7 +10932,10 @@
         <v>600</v>
       </c>
       <c r="AX53" t="n">
-        <v>0.03087680496500536</v>
+        <v>9000</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>0.1881521943175851</v>
       </c>
     </row>
     <row r="54">
@@ -11040,7 +11133,10 @@
         <v>600</v>
       </c>
       <c r="AX54" t="n">
-        <v>0.8205429036399913</v>
+        <v>9000</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>0.9203201973261338</v>
       </c>
     </row>
     <row r="55">
@@ -11238,7 +11334,10 @@
         <v>350</v>
       </c>
       <c r="AX55" t="n">
-        <v>0.9975311480250929</v>
+        <v>5250</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>0.755205951208525</v>
       </c>
     </row>
     <row r="56">
@@ -11436,7 +11535,10 @@
         <v>650</v>
       </c>
       <c r="AX56" t="n">
-        <v>0.9943939860587826</v>
+        <v>9750</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>0.7537966357315543</v>
       </c>
     </row>
     <row r="57">
@@ -11634,16 +11736,17 @@
         <v>850</v>
       </c>
       <c r="AX57" t="n">
-        <v>0.3305600359442635</v>
+        <v>12750</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>0.5477801030617111</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="b">
         <v>0</v>
       </c>
-      <c r="B58" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
         <v>4821.6</v>
       </c>
@@ -11828,16 +11931,17 @@
         <v>350</v>
       </c>
       <c r="AX58" t="n">
-        <v>0.0360213485115457</v>
+        <v>5250</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>0.4737241480406171</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="b">
         <v>0</v>
       </c>
-      <c r="B59" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
         <v>8954.4</v>
       </c>
@@ -12020,16 +12124,17 @@
         <v>650</v>
       </c>
       <c r="AX59" t="n">
-        <v>0.02582581749439355</v>
+        <v>9750</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>0.1972569184057157</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="b">
         <v>0</v>
       </c>
-      <c r="B60" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
         <v>8954.4</v>
       </c>
@@ -12214,16 +12319,17 @@
         <v>650</v>
       </c>
       <c r="AX60" t="n">
-        <v>0.2087947333410635</v>
+        <v>9750</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>0.4854931882377295</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="b">
         <v>0</v>
       </c>
-      <c r="B61" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
         <v>4821.6</v>
       </c>
@@ -12408,16 +12514,17 @@
         <v>350</v>
       </c>
       <c r="AX61" t="n">
-        <v>0.1585016933661771</v>
+        <v>5250</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>0.524526218780857</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="b">
         <v>0</v>
       </c>
-      <c r="B62" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
         <v>6199.2</v>
       </c>
@@ -12602,16 +12709,17 @@
         <v>450</v>
       </c>
       <c r="AX62" t="n">
-        <v>0.1487431045427809</v>
+        <v>6750</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>0.5153393830274797</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="b">
         <v>0</v>
       </c>
-      <c r="B63" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
         <v>8954.4</v>
       </c>
@@ -12790,16 +12898,17 @@
         <v>650</v>
       </c>
       <c r="AX63" t="n">
-        <v>0.02934117556847334</v>
+        <v>9750</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>0.1754587241637928</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="b">
         <v>0</v>
       </c>
-      <c r="B64" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -12982,16 +13091,17 @@
         <v>400</v>
       </c>
       <c r="AX64" t="n">
-        <v>0.03681155499155373</v>
+        <v>6000</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>0.24289729631043</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="b">
         <v>0</v>
       </c>
-      <c r="B65" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -13174,7 +13284,10 @@
         <v>700</v>
       </c>
       <c r="AX65" t="n">
-        <v>0.033835560031683</v>
+        <v>10500</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>0.3014732264680199</v>
       </c>
     </row>
     <row r="66">
@@ -13372,16 +13485,17 @@
         <v>700</v>
       </c>
       <c r="AX66" t="n">
-        <v>0.2671018348595454</v>
+        <v>10500</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>0.7792017940699307</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="b">
         <v>0</v>
       </c>
-      <c r="B67" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
         <v>4821.6</v>
       </c>
@@ -13566,7 +13680,10 @@
         <v>350</v>
       </c>
       <c r="AX67" t="n">
-        <v>0.03800157818460537</v>
+        <v>5250</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>0.1177979284312571</v>
       </c>
     </row>
     <row r="68">
@@ -13764,16 +13881,17 @@
         <v>950</v>
       </c>
       <c r="AX68" t="n">
-        <v>0.9982135075916433</v>
+        <v>14250</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>0.8346903835641439</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="b">
         <v>0</v>
       </c>
-      <c r="B69" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
         <v>8265.6</v>
       </c>
@@ -13956,16 +14074,17 @@
         <v>600</v>
       </c>
       <c r="AX69" t="n">
-        <v>0.01958754007020828</v>
+        <v>9000</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>0.3299468574399659</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="b">
         <v>0</v>
       </c>
-      <c r="B70" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
         <v>4821.6</v>
       </c>
@@ -14150,16 +14269,17 @@
         <v>350</v>
       </c>
       <c r="AX70" t="n">
-        <v>0.07880842986519747</v>
+        <v>5250</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>0.4096073979276653</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="b">
         <v>0</v>
       </c>
-      <c r="B71" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
         <v>13087.2</v>
       </c>
@@ -14344,16 +14464,17 @@
         <v>950</v>
       </c>
       <c r="AX71" t="n">
-        <v>0.4586620921894262</v>
+        <v>14250</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>0.8882710469790051</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="b">
         <v>0</v>
       </c>
-      <c r="B72" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
         <v>8954.4</v>
       </c>
@@ -14538,16 +14659,17 @@
         <v>650</v>
       </c>
       <c r="AX72" t="n">
-        <v>0.1437122010109269</v>
+        <v>9750</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>0.5614649531267051</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="b">
         <v>0</v>
       </c>
-      <c r="B73" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
         <v>4821.6</v>
       </c>
@@ -14730,16 +14852,17 @@
         <v>350</v>
       </c>
       <c r="AX73" t="n">
-        <v>0.1036105071437398</v>
+        <v>5250</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>0.4749659302903668</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="b">
         <v>0</v>
       </c>
-      <c r="B74" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -14928,7 +15051,10 @@
         <v>400</v>
       </c>
       <c r="AX74" t="n">
-        <v>0.07864536483059061</v>
+        <v>6000</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>0.4726406936614701</v>
       </c>
     </row>
     <row r="75">
@@ -15126,16 +15252,17 @@
         <v>600</v>
       </c>
       <c r="AX75" t="n">
-        <v>0.8317702370825503</v>
+        <v>9000</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>0.7880193924927872</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="b">
         <v>0</v>
       </c>
-      <c r="B76" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
         <v>8954.4</v>
       </c>
@@ -15320,16 +15447,17 @@
         <v>650</v>
       </c>
       <c r="AX76" t="n">
-        <v>0.4780556497188205</v>
+        <v>9750</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>0.72279818105958</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="b">
         <v>0</v>
       </c>
-      <c r="B77" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
         <v>6888</v>
       </c>
@@ -15510,16 +15638,17 @@
         <v>500</v>
       </c>
       <c r="AX77" t="n">
-        <v>0.191053163714449</v>
+        <v>7500</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>0.5652989705999792</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="b">
         <v>0</v>
       </c>
-      <c r="B78" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
         <v>8265.6</v>
       </c>
@@ -15704,16 +15833,17 @@
         <v>600</v>
       </c>
       <c r="AX78" t="n">
-        <v>0.04116558855812275</v>
+        <v>9000</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>0.7009209859166419</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="b">
         <v>0</v>
       </c>
-      <c r="B79" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
         <v>8265.6</v>
       </c>
@@ -15898,7 +16028,10 @@
         <v>600</v>
       </c>
       <c r="AX79" t="n">
-        <v>0.0392020670015884</v>
+        <v>9000</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>0.337220302687019</v>
       </c>
     </row>
     <row r="80">
@@ -16096,7 +16229,10 @@
         <v>650</v>
       </c>
       <c r="AX80" t="n">
-        <v>0.9894203146494489</v>
+        <v>9750</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0.7631790698341281</v>
       </c>
     </row>
     <row r="81">
@@ -16294,16 +16430,17 @@
         <v>600</v>
       </c>
       <c r="AX81" t="n">
-        <v>0.9719409880036778</v>
+        <v>9000</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0.6441548355508089</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="b">
         <v>0</v>
       </c>
-      <c r="B82" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
         <v>4821.6</v>
       </c>
@@ -16488,16 +16625,17 @@
         <v>350</v>
       </c>
       <c r="AX82" t="n">
-        <v>0.07168621935860009</v>
+        <v>5250</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0.1226351820083987</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="b">
         <v>0</v>
       </c>
-      <c r="B83" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -16682,16 +16820,17 @@
         <v>700</v>
       </c>
       <c r="AX83" t="n">
-        <v>0.2165873235444928</v>
+        <v>10500</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0.6113359597541217</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="b">
         <v>0</v>
       </c>
-      <c r="B84" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
         <v>6888</v>
       </c>
@@ -16876,16 +17015,17 @@
         <v>500</v>
       </c>
       <c r="AX84" t="n">
-        <v>0.05537478088910733</v>
+        <v>7500</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0.2812927332289143</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="b">
         <v>0</v>
       </c>
-      <c r="B85" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
         <v>4821.6</v>
       </c>
@@ -17070,16 +17210,17 @@
         <v>350</v>
       </c>
       <c r="AX85" t="n">
-        <v>0.05253863032212263</v>
+        <v>5250</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0.2182141978931725</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="b">
         <v>0</v>
       </c>
-      <c r="B86" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
         <v>8265.6</v>
       </c>
@@ -17262,16 +17403,17 @@
         <v>600</v>
       </c>
       <c r="AX86" t="n">
-        <v>0.0697576773171803</v>
+        <v>9000</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0.5449161922412922</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="b">
         <v>0</v>
       </c>
-      <c r="B87" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
         <v>4821.6</v>
       </c>
@@ -17456,7 +17598,10 @@
         <v>350</v>
       </c>
       <c r="AX87" t="n">
-        <v>0.09586161953299251</v>
+        <v>5250</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0.2725541939010339</v>
       </c>
     </row>
     <row r="88">
@@ -17654,16 +17799,17 @@
         <v>600</v>
       </c>
       <c r="AX88" t="n">
-        <v>0.988125661217636</v>
+        <v>9000</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0.6184363833786579</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="b">
         <v>0</v>
       </c>
-      <c r="B89" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
         <v>6199.2</v>
       </c>
@@ -17848,7 +17994,10 @@
         <v>450</v>
       </c>
       <c r="AX89" t="n">
-        <v>0.05423038413403205</v>
+        <v>6750</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0.3409065195761718</v>
       </c>
     </row>
     <row r="90">
@@ -18046,7 +18195,10 @@
         <v>350</v>
       </c>
       <c r="AX90" t="n">
-        <v>0.9989733050164011</v>
+        <v>5250</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0.8841925172389515</v>
       </c>
     </row>
     <row r="91">
@@ -18244,16 +18396,17 @@
         <v>650</v>
       </c>
       <c r="AX91" t="n">
-        <v>0.9959980359921425</v>
+        <v>9750</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0.819668004060175</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="b">
         <v>0</v>
       </c>
-      <c r="B92" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
         <v>6199.2</v>
       </c>
@@ -18438,7 +18591,10 @@
         <v>450</v>
       </c>
       <c r="AX92" t="n">
-        <v>0.09369889553805574</v>
+        <v>6750</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0.2485268214986007</v>
       </c>
     </row>
     <row r="93">
@@ -18636,16 +18792,17 @@
         <v>950</v>
       </c>
       <c r="AX93" t="n">
-        <v>0.6778717608132202</v>
+        <v>14250</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0.9190591305619037</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="b">
         <v>0</v>
       </c>
-      <c r="B94" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -18830,7 +18987,10 @@
         <v>400</v>
       </c>
       <c r="AX94" t="n">
-        <v>0.007186020596248636</v>
+        <v>6000</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0.05459378968269855</v>
       </c>
     </row>
     <row r="95">
@@ -19028,16 +19188,17 @@
         <v>500</v>
       </c>
       <c r="AX95" t="n">
-        <v>0.9998721794661376</v>
+        <v>7500</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0.8488653819942235</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="b">
         <v>0</v>
       </c>
-      <c r="B96" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
         <v>8265.6</v>
       </c>
@@ -19222,7 +19383,10 @@
         <v>600</v>
       </c>
       <c r="AX96" t="n">
-        <v>0.1205273608903133</v>
+        <v>9000</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0.7952559193320616</v>
       </c>
     </row>
     <row r="97">
@@ -19420,7 +19584,10 @@
         <v>600</v>
       </c>
       <c r="AX97" t="n">
-        <v>0.8346858905113725</v>
+        <v>9000</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0.8642086289468319</v>
       </c>
     </row>
     <row r="98">
@@ -19618,16 +19785,17 @@
         <v>450</v>
       </c>
       <c r="AX98" t="n">
-        <v>0.9418405881901615</v>
+        <v>6750</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0.5979452748502856</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="b">
         <v>0</v>
       </c>
-      <c r="B99" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
         <v>4821.6</v>
       </c>
@@ -19812,16 +19980,17 @@
         <v>350</v>
       </c>
       <c r="AX99" t="n">
-        <v>0.0302603025195227</v>
+        <v>5250</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0.1156909221004749</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="b">
         <v>0</v>
       </c>
-      <c r="B100" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
         <v>8265.6</v>
       </c>
@@ -20006,16 +20175,17 @@
         <v>600</v>
       </c>
       <c r="AX100" t="n">
-        <v>0.01815684452769677</v>
+        <v>9000</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0.3052962989180793</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="b">
         <v>0</v>
       </c>
-      <c r="B101" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
         <v>13087.2</v>
       </c>
@@ -20198,16 +20368,17 @@
         <v>950</v>
       </c>
       <c r="AX101" t="n">
-        <v>0.04763750101818921</v>
+        <v>14250</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0.4449726005048277</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="b">
         <v>0</v>
       </c>
-      <c r="B102" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
         <v>6199.2</v>
       </c>
@@ -20392,16 +20563,17 @@
         <v>450</v>
       </c>
       <c r="AX102" t="n">
-        <v>0.01224697565261355</v>
+        <v>6750</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0.1472360021215042</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="b">
         <v>0</v>
       </c>
-      <c r="B103" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
         <v>4821.6</v>
       </c>
@@ -20586,16 +20758,17 @@
         <v>350</v>
       </c>
       <c r="AX103" t="n">
-        <v>0.008722361031466083</v>
+        <v>5250</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0.07267600504991872</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="b">
         <v>0</v>
       </c>
-      <c r="B104" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
         <v>8265.6</v>
       </c>
@@ -20780,16 +20953,17 @@
         <v>600</v>
       </c>
       <c r="AX104" t="n">
-        <v>0.2176065867841009</v>
+        <v>9000</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0.9240275184911249</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="b">
         <v>0</v>
       </c>
-      <c r="B105" t="n">
-        <v>7500</v>
-      </c>
+      <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
         <v>7576.8</v>
       </c>
@@ -20974,16 +21148,17 @@
         <v>550</v>
       </c>
       <c r="AX105" t="n">
-        <v>0.2570377954351554</v>
+        <v>8250</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0.2118119007835942</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="b">
         <v>0</v>
       </c>
-      <c r="B106" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
         <v>4821.6</v>
       </c>
@@ -21168,16 +21343,17 @@
         <v>350</v>
       </c>
       <c r="AX106" t="n">
-        <v>0.04077519213261872</v>
+        <v>5250</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0.2063021361527072</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="b">
         <v>0</v>
       </c>
-      <c r="B107" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
         <v>6888</v>
       </c>
@@ -21362,7 +21538,10 @@
         <v>500</v>
       </c>
       <c r="AX107" t="n">
-        <v>0.0482865317298186</v>
+        <v>7500</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0.07786855019366062</v>
       </c>
     </row>
     <row r="108">
@@ -21560,7 +21739,10 @@
         <v>650</v>
       </c>
       <c r="AX108" t="n">
-        <v>0.9491009174285318</v>
+        <v>9750</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0.5111119630030986</v>
       </c>
     </row>
     <row r="109">
@@ -21758,16 +21940,17 @@
         <v>600</v>
       </c>
       <c r="AX109" t="n">
-        <v>0.991390426883874</v>
+        <v>9000</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0.881555968780971</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="b">
         <v>0</v>
       </c>
-      <c r="B110" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
         <v>8954.4</v>
       </c>
@@ -21952,16 +22135,17 @@
         <v>650</v>
       </c>
       <c r="AX110" t="n">
-        <v>0.0340338394788613</v>
+        <v>9750</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0.1992108770020994</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="b">
         <v>0</v>
       </c>
-      <c r="B111" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
         <v>8265.6</v>
       </c>
@@ -22150,16 +22334,17 @@
         <v>600</v>
       </c>
       <c r="AX111" t="n">
-        <v>0.09103797122097657</v>
+        <v>9000</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0.7920074261660672</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="b">
         <v>0</v>
       </c>
-      <c r="B112" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
         <v>8954.4</v>
       </c>
@@ -22344,16 +22529,17 @@
         <v>650</v>
       </c>
       <c r="AX112" t="n">
-        <v>0.1750617776045743</v>
+        <v>9750</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0.510136017222131</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="b">
         <v>0</v>
       </c>
-      <c r="B113" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
         <v>4821.6</v>
       </c>
@@ -22538,7 +22724,10 @@
         <v>350</v>
       </c>
       <c r="AX113" t="n">
-        <v>0.2388526496166709</v>
+        <v>5250</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0.4006707682001445</v>
       </c>
     </row>
     <row r="114">
@@ -22736,16 +22925,17 @@
         <v>400</v>
       </c>
       <c r="AX114" t="n">
-        <v>0.9884203174531918</v>
+        <v>6000</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0.3773672256816197</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="b">
         <v>0</v>
       </c>
-      <c r="B115" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
         <v>13087.2</v>
       </c>
@@ -22934,7 +23124,10 @@
         <v>950</v>
       </c>
       <c r="AX115" t="n">
-        <v>0.2269214381975085</v>
+        <v>14250</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0.933166467299538</v>
       </c>
     </row>
     <row r="116">
@@ -23132,16 +23325,17 @@
         <v>850</v>
       </c>
       <c r="AX116" t="n">
-        <v>0.9980758420142241</v>
+        <v>12750</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>0.905724417485275</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="b">
         <v>0</v>
       </c>
-      <c r="B117" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
         <v>8265.6</v>
       </c>
@@ -23326,16 +23520,17 @@
         <v>600</v>
       </c>
       <c r="AX117" t="n">
-        <v>0.07797235894589696</v>
+        <v>9000</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>0.5560461769428486</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="b">
         <v>0</v>
       </c>
-      <c r="B118" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
         <v>8954.4</v>
       </c>
@@ -23518,16 +23713,17 @@
         <v>650</v>
       </c>
       <c r="AX118" t="n">
-        <v>0.5066770429475189</v>
+        <v>9750</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0.6082921463309415</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="b">
         <v>0</v>
       </c>
-      <c r="B119" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
         <v>8954.4</v>
       </c>
@@ -23710,16 +23906,17 @@
         <v>650</v>
       </c>
       <c r="AX119" t="n">
-        <v>0.05933055482882862</v>
+        <v>9750</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0.2743192468270355</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="b">
         <v>0</v>
       </c>
-      <c r="B120" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
         <v>8954.4</v>
       </c>
@@ -23904,16 +24101,17 @@
         <v>650</v>
       </c>
       <c r="AX120" t="n">
-        <v>0.09337534095346038</v>
+        <v>9750</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0.5052875665629393</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="b">
         <v>0</v>
       </c>
-      <c r="B121" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
         <v>6199.2</v>
       </c>
@@ -24098,7 +24296,10 @@
         <v>450</v>
       </c>
       <c r="AX121" t="n">
-        <v>0.756076861016255</v>
+        <v>6750</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0.8533716828542423</v>
       </c>
     </row>
     <row r="122">
@@ -24296,7 +24497,10 @@
         <v>650</v>
       </c>
       <c r="AX122" t="n">
-        <v>0.962115410302824</v>
+        <v>9750</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>0.4736106265271395</v>
       </c>
     </row>
     <row r="123">
@@ -24494,7 +24698,10 @@
         <v>600</v>
       </c>
       <c r="AX123" t="n">
-        <v>0.9893607185016339</v>
+        <v>9000</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>0.7083394688149629</v>
       </c>
     </row>
     <row r="124">
@@ -24692,16 +24899,17 @@
         <v>600</v>
       </c>
       <c r="AX124" t="n">
-        <v>0.9780199972052801</v>
+        <v>9000</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>0.6765641136805044</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="b">
         <v>0</v>
       </c>
-      <c r="B125" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
         <v>8954.4</v>
       </c>
@@ -24884,16 +25092,17 @@
         <v>650</v>
       </c>
       <c r="AX125" t="n">
-        <v>0.05217710187885532</v>
+        <v>9750</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>0.2635185311533431</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="b">
         <v>0</v>
       </c>
-      <c r="B126" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
         <v>8265.6</v>
       </c>
@@ -25078,16 +25287,17 @@
         <v>600</v>
       </c>
       <c r="AX126" t="n">
-        <v>0.04529366143183454</v>
+        <v>9000</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>0.380582124854137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="b">
         <v>0</v>
       </c>
-      <c r="B127" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
         <v>4821.6</v>
       </c>
@@ -25272,16 +25482,17 @@
         <v>350</v>
       </c>
       <c r="AX127" t="n">
-        <v>0.1687378050314048</v>
+        <v>5250</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>0.3516661537381844</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="b">
         <v>0</v>
       </c>
-      <c r="B128" t="n">
-        <v>7500</v>
-      </c>
+      <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
         <v>7576.8</v>
       </c>
@@ -25466,7 +25677,10 @@
         <v>550</v>
       </c>
       <c r="AX128" t="n">
-        <v>0.5670864981339639</v>
+        <v>8250</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>0.8124729202851861</v>
       </c>
     </row>
     <row r="129">
@@ -25664,7 +25878,10 @@
         <v>450</v>
       </c>
       <c r="AX129" t="n">
-        <v>0.9998774463042385</v>
+        <v>6750</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>0.688442776489905</v>
       </c>
     </row>
     <row r="130">
@@ -25862,16 +26079,17 @@
         <v>700</v>
       </c>
       <c r="AX130" t="n">
-        <v>0.8573313418778021</v>
+        <v>10500</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>0.5136159915459066</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="b">
         <v>0</v>
       </c>
-      <c r="B131" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
         <v>6199.2</v>
       </c>
@@ -26060,7 +26278,10 @@
         <v>450</v>
       </c>
       <c r="AX131" t="n">
-        <v>0.1737245656362789</v>
+        <v>6750</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>0.7127105416513317</v>
       </c>
     </row>
     <row r="132">
@@ -26258,7 +26479,10 @@
         <v>950</v>
       </c>
       <c r="AX132" t="n">
-        <v>0.5251193990608944</v>
+        <v>14250</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>0.03159727898354991</v>
       </c>
     </row>
     <row r="133">
@@ -26456,16 +26680,17 @@
         <v>350</v>
       </c>
       <c r="AX133" t="n">
-        <v>0.08931744966009682</v>
+        <v>5250</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>0.3653108746196825</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="b">
         <v>0</v>
       </c>
-      <c r="B134" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
         <v>8954.4</v>
       </c>
@@ -26650,16 +26875,17 @@
         <v>650</v>
       </c>
       <c r="AX134" t="n">
-        <v>0.5142247437838198</v>
+        <v>9750</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>0.741966501697208</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="b">
         <v>0</v>
       </c>
-      <c r="B135" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -26842,16 +27068,17 @@
         <v>700</v>
       </c>
       <c r="AX135" t="n">
-        <v>0.1232697721368178</v>
+        <v>10500</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>0.6834074709554612</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="b">
         <v>0</v>
       </c>
-      <c r="B136" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
         <v>4821.6</v>
       </c>
@@ -27036,16 +27263,17 @@
         <v>350</v>
       </c>
       <c r="AX136" t="n">
-        <v>0.132312033542148</v>
+        <v>5250</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>0.4336559853544417</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="b">
         <v>0</v>
       </c>
-      <c r="B137" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
         <v>6199.2</v>
       </c>
@@ -27230,16 +27458,17 @@
         <v>450</v>
       </c>
       <c r="AX137" t="n">
-        <v>0.008086363725373299</v>
+        <v>6750</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>0.08236897342935753</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="b">
         <v>0</v>
       </c>
-      <c r="B138" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
         <v>8265.6</v>
       </c>
@@ -27424,7 +27653,10 @@
         <v>600</v>
       </c>
       <c r="AX138" t="n">
-        <v>0.07010626518254354</v>
+        <v>9000</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>0.5804587550033125</v>
       </c>
     </row>
     <row r="139">
@@ -27622,16 +27854,17 @@
         <v>950</v>
       </c>
       <c r="AX139" t="n">
-        <v>0.9922169302475132</v>
+        <v>14250</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>0.3916361820730433</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="b">
         <v>0</v>
       </c>
-      <c r="B140" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
         <v>8954.4</v>
       </c>
@@ -27816,16 +28049,17 @@
         <v>650</v>
       </c>
       <c r="AX140" t="n">
-        <v>0.08535747270452708</v>
+        <v>9750</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0.3294313042564376</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="b">
         <v>0</v>
       </c>
-      <c r="B141" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -28010,16 +28244,17 @@
         <v>400</v>
       </c>
       <c r="AX141" t="n">
-        <v>0.01383610894419858</v>
+        <v>6000</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0.1521888110652988</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="b">
         <v>0</v>
       </c>
-      <c r="B142" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
         <v>8265.6</v>
       </c>
@@ -28204,16 +28439,17 @@
         <v>600</v>
       </c>
       <c r="AX142" t="n">
-        <v>0.02779233050085652</v>
+        <v>9000</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>0.3193893966550562</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="b">
         <v>0</v>
       </c>
-      <c r="B143" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
         <v>4821.6</v>
       </c>
@@ -28398,16 +28634,17 @@
         <v>350</v>
       </c>
       <c r="AX143" t="n">
-        <v>0.2771357835673431</v>
+        <v>5250</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>0.6409258142643147</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="b">
         <v>0</v>
       </c>
-      <c r="B144" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
         <v>8954.4</v>
       </c>
@@ -28592,16 +28829,17 @@
         <v>650</v>
       </c>
       <c r="AX144" t="n">
-        <v>0.03740701643818857</v>
+        <v>9750</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>0.2071906465291705</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="b">
         <v>0</v>
       </c>
-      <c r="B145" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -28786,16 +29024,17 @@
         <v>400</v>
       </c>
       <c r="AX145" t="n">
-        <v>0.2287620442617069</v>
+        <v>6000</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>0.7738100670539259</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="b">
         <v>0</v>
       </c>
-      <c r="B146" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -28980,16 +29219,17 @@
         <v>700</v>
       </c>
       <c r="AX146" t="n">
-        <v>0.1107999823361108</v>
+        <v>10500</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0.7081422404565837</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="b">
         <v>0</v>
       </c>
-      <c r="B147" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
         <v>6199.2</v>
       </c>
@@ -29174,16 +29414,17 @@
         <v>450</v>
       </c>
       <c r="AX147" t="n">
-        <v>0.1863755177689833</v>
+        <v>6750</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0.4356479124288906</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="b">
         <v>0</v>
       </c>
-      <c r="B148" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -29364,16 +29605,17 @@
         <v>700</v>
       </c>
       <c r="AX148" t="n">
-        <v>0.004047087654619147</v>
+        <v>10500</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0.07514891668658819</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="b">
         <v>0</v>
       </c>
-      <c r="B149" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
         <v>8265.6</v>
       </c>
@@ -29558,16 +29800,17 @@
         <v>600</v>
       </c>
       <c r="AX149" t="n">
-        <v>0.1050624603708453</v>
+        <v>9000</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>0.4988023987654915</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="b">
         <v>0</v>
       </c>
-      <c r="B150" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
         <v>8265.6</v>
       </c>
@@ -29752,16 +29995,17 @@
         <v>600</v>
       </c>
       <c r="AX150" t="n">
-        <v>0.03839381877796403</v>
+        <v>9000</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>0.4890463121099942</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="b">
         <v>0</v>
       </c>
-      <c r="B151" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
         <v>8265.6</v>
       </c>
@@ -29944,16 +30188,17 @@
         <v>600</v>
       </c>
       <c r="AX151" t="n">
-        <v>0.07997412411600693</v>
+        <v>9000</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>0.6583035066337906</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="b">
         <v>0</v>
       </c>
-      <c r="B152" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -30138,16 +30383,17 @@
         <v>700</v>
       </c>
       <c r="AX152" t="n">
-        <v>0.1920790196799781</v>
+        <v>10500</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>0.5896190988945346</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="b">
         <v>0</v>
       </c>
-      <c r="B153" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
         <v>8265.6</v>
       </c>
@@ -30332,7 +30578,10 @@
         <v>600</v>
       </c>
       <c r="AX153" t="n">
-        <v>0.01294473758484334</v>
+        <v>9000</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0.3203341674944051</v>
       </c>
     </row>
     <row r="154">
@@ -30530,7 +30779,10 @@
         <v>600</v>
       </c>
       <c r="AX154" t="n">
-        <v>0.9669380374030354</v>
+        <v>9000</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>0.481667767742312</v>
       </c>
     </row>
     <row r="155">
@@ -30728,16 +30980,17 @@
         <v>450</v>
       </c>
       <c r="AX155" t="n">
-        <v>0.9002873139336696</v>
+        <v>6750</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0.5487834297131677</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="b">
         <v>0</v>
       </c>
-      <c r="B156" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
         <v>4821.6</v>
       </c>
@@ -30922,16 +31175,17 @@
         <v>350</v>
       </c>
       <c r="AX156" t="n">
-        <v>0.05794752080907917</v>
+        <v>5250</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0.375022470377576</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="b">
         <v>0</v>
       </c>
-      <c r="B157" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
         <v>4821.6</v>
       </c>
@@ -31116,16 +31370,17 @@
         <v>350</v>
       </c>
       <c r="AX157" t="n">
-        <v>0.01854261935919969</v>
+        <v>5250</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0.197172240864896</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="b">
         <v>0</v>
       </c>
-      <c r="B158" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
         <v>4821.6</v>
       </c>
@@ -31310,16 +31565,17 @@
         <v>350</v>
       </c>
       <c r="AX158" t="n">
-        <v>0.3591852344768228</v>
+        <v>5250</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0.5358503087019078</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="b">
         <v>0</v>
       </c>
-      <c r="B159" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
         <v>8954.4</v>
       </c>
@@ -31504,7 +31760,10 @@
         <v>650</v>
       </c>
       <c r="AX159" t="n">
-        <v>0.07383756987583737</v>
+        <v>9750</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0.4389838791094152</v>
       </c>
     </row>
     <row r="160">
@@ -31702,7 +31961,10 @@
         <v>400</v>
       </c>
       <c r="AX160" t="n">
-        <v>0.5216296463298956</v>
+        <v>6000</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0.486547043938743</v>
       </c>
     </row>
     <row r="161">
@@ -31900,16 +32162,17 @@
         <v>650</v>
       </c>
       <c r="AX161" t="n">
-        <v>0.7644484627572551</v>
+        <v>9750</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0.2621185683700653</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="b">
         <v>0</v>
       </c>
-      <c r="B162" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -32092,7 +32355,10 @@
         <v>700</v>
       </c>
       <c r="AX162" t="n">
-        <v>0.1200516567354872</v>
+        <v>10500</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0.3366190095401778</v>
       </c>
     </row>
     <row r="163">
@@ -32290,16 +32556,17 @@
         <v>600</v>
       </c>
       <c r="AX163" t="n">
-        <v>0.1789135286658591</v>
+        <v>9000</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0.892287661736782</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="b">
         <v>0</v>
       </c>
-      <c r="B164" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
         <v>8265.6</v>
       </c>
@@ -32484,16 +32751,17 @@
         <v>600</v>
       </c>
       <c r="AX164" t="n">
-        <v>0.1062851109282994</v>
+        <v>9000</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>0.7467374555873973</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="b">
         <v>0</v>
       </c>
-      <c r="B165" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
         <v>6199.2</v>
       </c>
@@ -32678,7 +32946,10 @@
         <v>450</v>
       </c>
       <c r="AX165" t="n">
-        <v>0.006533268884770334</v>
+        <v>6750</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>0.1584435521392357</v>
       </c>
     </row>
     <row r="166">
@@ -32876,16 +33147,17 @@
         <v>700</v>
       </c>
       <c r="AX166" t="n">
-        <v>0.9989257588223887</v>
+        <v>10500</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>0.8639753928023821</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="b">
         <v>0</v>
       </c>
-      <c r="B167" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
         <v>8954.4</v>
       </c>
@@ -33070,16 +33342,17 @@
         <v>650</v>
       </c>
       <c r="AX167" t="n">
-        <v>0.03437963064428908</v>
+        <v>9750</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>0.3896769996246393</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="b">
         <v>0</v>
       </c>
-      <c r="B168" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
         <v>4821.6</v>
       </c>
@@ -33264,16 +33537,17 @@
         <v>350</v>
       </c>
       <c r="AX168" t="n">
-        <v>0.1434235947578737</v>
+        <v>5250</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>0.5337804652681579</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="b">
         <v>0</v>
       </c>
-      <c r="B169" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -33456,7 +33730,10 @@
         <v>700</v>
       </c>
       <c r="AX169" t="n">
-        <v>0.6244310080787142</v>
+        <v>10500</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>0.8203802162785633</v>
       </c>
     </row>
     <row r="170">
@@ -33654,7 +33931,10 @@
         <v>600</v>
       </c>
       <c r="AX170" t="n">
-        <v>0.9889222260614166</v>
+        <v>9000</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>0.7324912012674231</v>
       </c>
     </row>
     <row r="171">
@@ -33852,16 +34132,17 @@
         <v>950</v>
       </c>
       <c r="AX171" t="n">
-        <v>0.98557472969261</v>
+        <v>14250</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>0.5890544866859546</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="b">
         <v>0</v>
       </c>
-      <c r="B172" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
         <v>8954.4</v>
       </c>
@@ -34044,7 +34325,10 @@
         <v>650</v>
       </c>
       <c r="AX172" t="n">
-        <v>0.02501843936101852</v>
+        <v>9750</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>0.1032840486833694</v>
       </c>
     </row>
     <row r="173">
@@ -34242,16 +34526,17 @@
         <v>600</v>
       </c>
       <c r="AX173" t="n">
-        <v>0.9847168686188909</v>
+        <v>9000</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>0.4860942945012521</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="b">
         <v>0</v>
       </c>
-      <c r="B174" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
         <v>8954.4</v>
       </c>
@@ -34436,16 +34721,17 @@
         <v>650</v>
       </c>
       <c r="AX174" t="n">
-        <v>0.08219567689286933</v>
+        <v>9750</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>0.3531111074104231</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="b">
         <v>0</v>
       </c>
-      <c r="B175" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
         <v>4821.6</v>
       </c>
@@ -34628,16 +34914,17 @@
         <v>350</v>
       </c>
       <c r="AX175" t="n">
-        <v>0.1586664010978949</v>
+        <v>5250</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>0.3880737258008957</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="b">
         <v>0</v>
       </c>
-      <c r="B176" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
         <v>8954.4</v>
       </c>
@@ -34820,16 +35107,17 @@
         <v>650</v>
       </c>
       <c r="AX176" t="n">
-        <v>0.05857271641039702</v>
+        <v>9750</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>0.2454719315206614</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="b">
         <v>0</v>
       </c>
-      <c r="B177" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
         <v>4821.6</v>
       </c>
@@ -35014,7 +35302,10 @@
         <v>350</v>
       </c>
       <c r="AX177" t="n">
-        <v>0.05537946707362465</v>
+        <v>5250</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0.1343976026976345</v>
       </c>
     </row>
     <row r="178">
@@ -35212,7 +35503,10 @@
         <v>600</v>
       </c>
       <c r="AX178" t="n">
-        <v>0.02078401896394057</v>
+        <v>9000</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>0.2234345179920626</v>
       </c>
     </row>
     <row r="179">
@@ -35410,16 +35704,17 @@
         <v>600</v>
       </c>
       <c r="AX179" t="n">
-        <v>0.73333153550868</v>
+        <v>9000</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>0.6754466936708128</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="b">
         <v>0</v>
       </c>
-      <c r="B180" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -35604,16 +35899,17 @@
         <v>400</v>
       </c>
       <c r="AX180" t="n">
-        <v>0.02042509113132066</v>
+        <v>6000</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0.14877538858509</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="b">
         <v>0</v>
       </c>
-      <c r="B181" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
         <v>6199.2</v>
       </c>
@@ -35798,16 +36094,17 @@
         <v>450</v>
       </c>
       <c r="AX181" t="n">
-        <v>0.03978290882020377</v>
+        <v>6750</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0.4528658528684211</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="b">
         <v>0</v>
       </c>
-      <c r="B182" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
         <v>4821.6</v>
       </c>
@@ -35992,16 +36289,17 @@
         <v>350</v>
       </c>
       <c r="AX182" t="n">
-        <v>0.5461002123111984</v>
+        <v>5250</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>0.7355509619217371</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="b">
         <v>0</v>
       </c>
-      <c r="B183" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
         <v>6888</v>
       </c>
@@ -36186,16 +36484,17 @@
         <v>500</v>
       </c>
       <c r="AX183" t="n">
-        <v>0.3107545612406399</v>
+        <v>7500</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>0.6819722986522737</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="b">
         <v>0</v>
       </c>
-      <c r="B184" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
         <v>8265.6</v>
       </c>
@@ -36380,16 +36679,17 @@
         <v>600</v>
       </c>
       <c r="AX184" t="n">
-        <v>0.006926150045541147</v>
+        <v>9000</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>0.2122627701027758</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="b">
         <v>0</v>
       </c>
-      <c r="B185" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
         <v>8265.6</v>
       </c>
@@ -36574,16 +36874,17 @@
         <v>600</v>
       </c>
       <c r="AX185" t="n">
-        <v>0.07758101192610814</v>
+        <v>9000</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>0.3697216026132021</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="b">
         <v>0</v>
       </c>
-      <c r="B186" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
         <v>8954.4</v>
       </c>
@@ -36768,16 +37069,17 @@
         <v>650</v>
       </c>
       <c r="AX186" t="n">
-        <v>0.06094836849399961</v>
+        <v>9750</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0.3786617187470661</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="b">
         <v>0</v>
       </c>
-      <c r="B187" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
         <v>8265.6</v>
       </c>
@@ -36960,16 +37262,17 @@
         <v>600</v>
       </c>
       <c r="AX187" t="n">
-        <v>0.02668059560221752</v>
+        <v>9000</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0.2251478478841783</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="b">
         <v>0</v>
       </c>
-      <c r="B188" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
         <v>8265.6</v>
       </c>
@@ -37154,16 +37457,17 @@
         <v>600</v>
       </c>
       <c r="AX188" t="n">
-        <v>0.1922626709047655</v>
+        <v>9000</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>0.7417611107269919</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="b">
         <v>0</v>
       </c>
-      <c r="B189" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
         <v>8265.6</v>
       </c>
@@ -37344,16 +37648,17 @@
         <v>600</v>
       </c>
       <c r="AX189" t="n">
-        <v>0.02471997030685223</v>
+        <v>9000</v>
+      </c>
+      <c r="AY189" t="n">
+        <v>0.1194848535605133</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="b">
         <v>0</v>
       </c>
-      <c r="B190" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
         <v>8265.6</v>
       </c>
@@ -37538,16 +37843,17 @@
         <v>600</v>
       </c>
       <c r="AX190" t="n">
-        <v>0.05236380553942006</v>
+        <v>9000</v>
+      </c>
+      <c r="AY190" t="n">
+        <v>0.4337860215298489</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="b">
         <v>0</v>
       </c>
-      <c r="B191" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -37732,16 +38038,17 @@
         <v>400</v>
       </c>
       <c r="AX191" t="n">
-        <v>0.07599753513819341</v>
+        <v>6000</v>
+      </c>
+      <c r="AY191" t="n">
+        <v>0.2303998315162585</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="b">
         <v>0</v>
       </c>
-      <c r="B192" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
         <v>8265.6</v>
       </c>
@@ -37926,16 +38233,17 @@
         <v>600</v>
       </c>
       <c r="AX192" t="n">
-        <v>0.02028882870082017</v>
+        <v>9000</v>
+      </c>
+      <c r="AY192" t="n">
+        <v>0.236277875266117</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="b">
         <v>0</v>
       </c>
-      <c r="B193" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
         <v>8954.4</v>
       </c>
@@ -38120,7 +38428,10 @@
         <v>650</v>
       </c>
       <c r="AX193" t="n">
-        <v>0.03845789528700727</v>
+        <v>9750</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>0.1406657228267635</v>
       </c>
     </row>
     <row r="194">
@@ -38318,7 +38629,10 @@
         <v>600</v>
       </c>
       <c r="AX194" t="n">
-        <v>0.3824633137299211</v>
+        <v>9000</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>0.1938906298756181</v>
       </c>
     </row>
     <row r="195">
@@ -38516,7 +38830,10 @@
         <v>350</v>
       </c>
       <c r="AX195" t="n">
-        <v>0.9864978148489347</v>
+        <v>5250</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>0.397399276279758</v>
       </c>
     </row>
     <row r="196">
@@ -38714,16 +39031,17 @@
         <v>450</v>
       </c>
       <c r="AX196" t="n">
-        <v>0.9966971353174547</v>
+        <v>6750</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>0.5832584865471901</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="b">
         <v>0</v>
       </c>
-      <c r="B197" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B197" t="inlineStr"/>
       <c r="C197" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -38912,16 +39230,17 @@
         <v>400</v>
       </c>
       <c r="AX197" t="n">
-        <v>0.3328639202485546</v>
+        <v>6000</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>0.5325618700108105</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="b">
         <v>0</v>
       </c>
-      <c r="B198" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B198" t="inlineStr"/>
       <c r="C198" t="n">
         <v>4821.6</v>
       </c>
@@ -39106,16 +39425,17 @@
         <v>350</v>
       </c>
       <c r="AX198" t="n">
-        <v>0.008844477293574191</v>
+        <v>5250</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>0.05073130921779486</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="b">
         <v>0</v>
       </c>
-      <c r="B199" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B199" t="inlineStr"/>
       <c r="C199" t="n">
         <v>6199.2</v>
       </c>
@@ -39300,7 +39620,10 @@
         <v>450</v>
       </c>
       <c r="AX199" t="n">
-        <v>0.06518738209243589</v>
+        <v>6750</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>0.7024309270232885</v>
       </c>
     </row>
     <row r="200">
@@ -39498,7 +39821,10 @@
         <v>650</v>
       </c>
       <c r="AX200" t="n">
-        <v>0.9691043842076211</v>
+        <v>9750</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>0.696524758243211</v>
       </c>
     </row>
     <row r="201">
@@ -39696,16 +40022,17 @@
         <v>650</v>
       </c>
       <c r="AX201" t="n">
-        <v>0.9881222319137001</v>
+        <v>9750</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>0.7689254875668249</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="b">
         <v>0</v>
       </c>
-      <c r="B202" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B202" t="inlineStr"/>
       <c r="C202" t="n">
         <v>4821.6</v>
       </c>
@@ -39890,16 +40217,17 @@
         <v>350</v>
       </c>
       <c r="AX202" t="n">
-        <v>0.1190987229377272</v>
+        <v>5250</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>0.3555696093397157</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="b">
         <v>0</v>
       </c>
-      <c r="B203" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B203" t="inlineStr"/>
       <c r="C203" t="n">
         <v>4821.6</v>
       </c>
@@ -40084,16 +40412,17 @@
         <v>350</v>
       </c>
       <c r="AX203" t="n">
-        <v>0.2856601987062087</v>
+        <v>5250</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0.6271964759706505</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="b">
         <v>0</v>
       </c>
-      <c r="B204" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B204" t="inlineStr"/>
       <c r="C204" t="n">
         <v>6199.2</v>
       </c>
@@ -40278,16 +40607,17 @@
         <v>450</v>
       </c>
       <c r="AX204" t="n">
-        <v>0.01919671569178616</v>
+        <v>6750</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0.1020096774556308</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="b">
         <v>0</v>
       </c>
-      <c r="B205" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B205" t="inlineStr"/>
       <c r="C205" t="n">
         <v>8265.6</v>
       </c>
@@ -40470,16 +40800,17 @@
         <v>600</v>
       </c>
       <c r="AX205" t="n">
-        <v>0.2050101112925958</v>
+        <v>9000</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0.8555667845023261</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="b">
         <v>0</v>
       </c>
-      <c r="B206" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B206" t="inlineStr"/>
       <c r="C206" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -40664,16 +40995,17 @@
         <v>700</v>
       </c>
       <c r="AX206" t="n">
-        <v>0.1054175984497613</v>
+        <v>10500</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>0.4038141858263887</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="b">
         <v>0</v>
       </c>
-      <c r="B207" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B207" t="inlineStr"/>
       <c r="C207" t="n">
         <v>13087.2</v>
       </c>
@@ -40858,7 +41190,10 @@
         <v>950</v>
       </c>
       <c r="AX207" t="n">
-        <v>0.05662796381397978</v>
+        <v>14250</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>0.800997062195578</v>
       </c>
     </row>
     <row r="208">
@@ -41056,16 +41391,17 @@
         <v>600</v>
       </c>
       <c r="AX208" t="n">
-        <v>0.9953716674521697</v>
+        <v>9000</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>0.9002630965253239</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="b">
         <v>0</v>
       </c>
-      <c r="B209" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B209" t="inlineStr"/>
       <c r="C209" t="n">
         <v>4821.6</v>
       </c>
@@ -41250,16 +41586,17 @@
         <v>350</v>
       </c>
       <c r="AX209" t="n">
-        <v>0.1698927955778329</v>
+        <v>5250</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>0.3263028116706152</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="b">
         <v>0</v>
       </c>
-      <c r="B210" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B210" t="inlineStr"/>
       <c r="C210" t="n">
         <v>8265.6</v>
       </c>
@@ -41444,16 +41781,17 @@
         <v>600</v>
       </c>
       <c r="AX210" t="n">
-        <v>0.01587599719595022</v>
+        <v>9000</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>0.3566434984177934</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="b">
         <v>0</v>
       </c>
-      <c r="B211" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B211" t="inlineStr"/>
       <c r="C211" t="n">
         <v>8265.6</v>
       </c>
@@ -41636,16 +41974,17 @@
         <v>600</v>
       </c>
       <c r="AX211" t="n">
-        <v>0.05446557059351013</v>
+        <v>9000</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>0.4595252992951332</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="b">
         <v>0</v>
       </c>
-      <c r="B212" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B212" t="inlineStr"/>
       <c r="C212" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -41830,16 +42169,17 @@
         <v>400</v>
       </c>
       <c r="AX212" t="n">
-        <v>0.2871668241344825</v>
+        <v>6000</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>0.6289961245721569</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="b">
         <v>0</v>
       </c>
-      <c r="B213" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B213" t="inlineStr"/>
       <c r="C213" t="n">
         <v>6888</v>
       </c>
@@ -42024,16 +42364,17 @@
         <v>500</v>
       </c>
       <c r="AX213" t="n">
-        <v>0.3260549268415044</v>
+        <v>7500</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>0.6206730551296675</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="b">
         <v>0</v>
       </c>
-      <c r="B214" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B214" t="inlineStr"/>
       <c r="C214" t="n">
         <v>13087.2</v>
       </c>
@@ -42218,16 +42559,17 @@
         <v>950</v>
       </c>
       <c r="AX214" t="n">
-        <v>0.004818871360953928</v>
+        <v>14250</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>0.1585442196082961</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="b">
         <v>0</v>
       </c>
-      <c r="B215" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B215" t="inlineStr"/>
       <c r="C215" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -42408,16 +42750,17 @@
         <v>700</v>
       </c>
       <c r="AX215" t="n">
-        <v>0.003579305283034506</v>
+        <v>10500</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>0.05089887341456033</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="b">
         <v>0</v>
       </c>
-      <c r="B216" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B216" t="inlineStr"/>
       <c r="C216" t="n">
         <v>4821.6</v>
       </c>
@@ -42600,16 +42943,17 @@
         <v>350</v>
       </c>
       <c r="AX216" t="n">
-        <v>0.0676068250548036</v>
+        <v>5250</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>0.1927906152398327</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="b">
         <v>0</v>
       </c>
-      <c r="B217" t="n">
-        <v>11800</v>
-      </c>
+      <c r="B217" t="inlineStr"/>
       <c r="C217" t="n">
         <v>11709.6</v>
       </c>
@@ -42794,16 +43138,17 @@
         <v>850</v>
       </c>
       <c r="AX217" t="n">
-        <v>0.5707314777102064</v>
+        <v>12750</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>0.5594804708566703</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="b">
         <v>0</v>
       </c>
-      <c r="B218" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
         <v>4821.6</v>
       </c>
@@ -42988,16 +43333,17 @@
         <v>350</v>
       </c>
       <c r="AX218" t="n">
-        <v>0.06781209697826629</v>
+        <v>5250</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>0.3278554797559844</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="b">
         <v>0</v>
       </c>
-      <c r="B219" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
         <v>6199.2</v>
       </c>
@@ -43180,7 +43526,10 @@
         <v>450</v>
       </c>
       <c r="AX219" t="n">
-        <v>0.05141601760088935</v>
+        <v>6750</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>0.5064964779594208</v>
       </c>
     </row>
     <row r="220">
@@ -43378,7 +43727,10 @@
         <v>350</v>
       </c>
       <c r="AX220" t="n">
-        <v>0.8481845569087866</v>
+        <v>5250</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>0.5843556876006782</v>
       </c>
     </row>
     <row r="221">
@@ -43576,7 +43928,10 @@
         <v>950</v>
       </c>
       <c r="AX221" t="n">
-        <v>0.9849646450052336</v>
+        <v>14250</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>0.7279457414183219</v>
       </c>
     </row>
     <row r="222">
@@ -43774,16 +44129,17 @@
         <v>700</v>
       </c>
       <c r="AX222" t="n">
-        <v>0.1525615847918886</v>
+        <v>10500</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>0.6438042649907587</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="b">
         <v>0</v>
       </c>
-      <c r="B223" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B223" t="inlineStr"/>
       <c r="C223" t="n">
         <v>6199.2</v>
       </c>
@@ -43968,16 +44324,17 @@
         <v>450</v>
       </c>
       <c r="AX223" t="n">
-        <v>0.0305985337892575</v>
+        <v>6750</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>0.2805453610737604</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="b">
         <v>0</v>
       </c>
-      <c r="B224" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B224" t="inlineStr"/>
       <c r="C224" t="n">
         <v>6888</v>
       </c>
@@ -44162,16 +44519,17 @@
         <v>500</v>
       </c>
       <c r="AX224" t="n">
-        <v>0.6736061163231832</v>
+        <v>7500</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>0.8493678908045343</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="b">
         <v>0</v>
       </c>
-      <c r="B225" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B225" t="inlineStr"/>
       <c r="C225" t="n">
         <v>4821.6</v>
       </c>
@@ -44356,7 +44714,10 @@
         <v>350</v>
       </c>
       <c r="AX225" t="n">
-        <v>0.1057856809904873</v>
+        <v>5250</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>0.4289720385367019</v>
       </c>
     </row>
     <row r="226">
@@ -44554,16 +44915,17 @@
         <v>450</v>
       </c>
       <c r="AX226" t="n">
-        <v>0.8186742786664368</v>
+        <v>6750</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>0.4923222728844466</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="b">
         <v>0</v>
       </c>
-      <c r="B227" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B227" t="inlineStr"/>
       <c r="C227" t="n">
         <v>8265.6</v>
       </c>
@@ -44746,16 +45108,17 @@
         <v>600</v>
       </c>
       <c r="AX227" t="n">
-        <v>0.05191133219188502</v>
+        <v>9000</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>0.3505536140947409</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="b">
         <v>0</v>
       </c>
-      <c r="B228" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B228" t="inlineStr"/>
       <c r="C228" t="n">
         <v>13087.2</v>
       </c>
@@ -44938,16 +45301,17 @@
         <v>950</v>
       </c>
       <c r="AX228" t="n">
-        <v>0.08358960893780104</v>
+        <v>14250</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>0.3189399414080663</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="b">
         <v>0</v>
       </c>
-      <c r="B229" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B229" t="inlineStr"/>
       <c r="C229" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -45132,7 +45496,10 @@
         <v>400</v>
       </c>
       <c r="AX229" t="n">
-        <v>0.07147706055687321</v>
+        <v>6000</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>0.3176434726429839</v>
       </c>
     </row>
     <row r="230">
@@ -45330,7 +45697,10 @@
         <v>950</v>
       </c>
       <c r="AX230" t="n">
-        <v>0.9891538571486813</v>
+        <v>14250</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>0.5705552030992055</v>
       </c>
     </row>
     <row r="231">
@@ -45528,16 +45898,17 @@
         <v>650</v>
       </c>
       <c r="AX231" t="n">
-        <v>0.7182153879735655</v>
+        <v>9750</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>0.2485302942421033</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="b">
         <v>0</v>
       </c>
-      <c r="B232" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B232" t="inlineStr"/>
       <c r="C232" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -45722,7 +46093,10 @@
         <v>400</v>
       </c>
       <c r="AX232" t="n">
-        <v>0.2005671499093332</v>
+        <v>6000</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>0.5819372880132143</v>
       </c>
     </row>
     <row r="233">
@@ -45920,16 +46294,17 @@
         <v>650</v>
       </c>
       <c r="AX233" t="n">
-        <v>0.9834827220027633</v>
+        <v>9750</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>0.6110560007411945</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="b">
         <v>0</v>
       </c>
-      <c r="B234" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B234" t="inlineStr"/>
       <c r="C234" t="n">
         <v>6199.2</v>
       </c>
@@ -46114,16 +46489,17 @@
         <v>450</v>
       </c>
       <c r="AX234" t="n">
-        <v>0.2773672025314301</v>
+        <v>6750</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>0.5510545458430864</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="b">
         <v>0</v>
       </c>
-      <c r="B235" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B235" t="inlineStr"/>
       <c r="C235" t="n">
         <v>8954.4</v>
       </c>
@@ -46308,16 +46684,17 @@
         <v>650</v>
       </c>
       <c r="AX235" t="n">
-        <v>0.1402561643307661</v>
+        <v>9750</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>0.4732441023178266</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="b">
         <v>0</v>
       </c>
-      <c r="B236" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B236" t="inlineStr"/>
       <c r="C236" t="n">
         <v>6199.2</v>
       </c>
@@ -46500,16 +46877,17 @@
         <v>450</v>
       </c>
       <c r="AX236" t="n">
-        <v>0.02061337177281415</v>
+        <v>6750</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>0.1533314850196976</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="b">
         <v>0</v>
       </c>
-      <c r="B237" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B237" t="inlineStr"/>
       <c r="C237" t="n">
         <v>8954.4</v>
       </c>
@@ -46690,7 +47068,10 @@
         <v>650</v>
       </c>
       <c r="AX237" t="n">
-        <v>0.01879570219854696</v>
+        <v>9750</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>0.1561162266838783</v>
       </c>
     </row>
     <row r="238">
@@ -46888,7 +47269,10 @@
         <v>650</v>
       </c>
       <c r="AX238" t="n">
-        <v>0.9905518554562108</v>
+        <v>9750</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>0.8827861858532524</v>
       </c>
     </row>
     <row r="239">
@@ -47086,16 +47470,17 @@
         <v>450</v>
       </c>
       <c r="AX239" t="n">
-        <v>0.9715494159643733</v>
+        <v>6750</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>0.7024220687946158</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="b">
         <v>0</v>
       </c>
-      <c r="B240" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B240" t="inlineStr"/>
       <c r="C240" t="n">
         <v>8954.4</v>
       </c>
@@ -47278,16 +47663,17 @@
         <v>650</v>
       </c>
       <c r="AX240" t="n">
-        <v>0.007518550273461775</v>
+        <v>9750</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>0.08562377649968715</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="b">
         <v>0</v>
       </c>
-      <c r="B241" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B241" t="inlineStr"/>
       <c r="C241" t="n">
         <v>4821.6</v>
       </c>
@@ -47472,16 +47858,17 @@
         <v>350</v>
       </c>
       <c r="AX241" t="n">
-        <v>0.108463904716585</v>
+        <v>5250</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>0.4438561415982348</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="b">
         <v>0</v>
       </c>
-      <c r="B242" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B242" t="inlineStr"/>
       <c r="C242" t="n">
         <v>8954.4</v>
       </c>
@@ -47666,16 +48053,17 @@
         <v>650</v>
       </c>
       <c r="AX242" t="n">
-        <v>0.02507750042530262</v>
+        <v>9750</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>0.1590538956490758</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="b">
         <v>0</v>
       </c>
-      <c r="B243" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B243" t="inlineStr"/>
       <c r="C243" t="n">
         <v>6199.2</v>
       </c>
@@ -47860,16 +48248,17 @@
         <v>450</v>
       </c>
       <c r="AX243" t="n">
-        <v>0.03543492035975026</v>
+        <v>6750</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>0.1909112795744877</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="b">
         <v>0</v>
       </c>
-      <c r="B244" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B244" t="inlineStr"/>
       <c r="C244" t="n">
         <v>8265.6</v>
       </c>
@@ -48054,16 +48443,17 @@
         <v>600</v>
       </c>
       <c r="AX244" t="n">
-        <v>0.02091766193039599</v>
+        <v>9000</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>0.4003148050001979</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="b">
         <v>0</v>
       </c>
-      <c r="B245" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B245" t="inlineStr"/>
       <c r="C245" t="n">
         <v>4821.6</v>
       </c>
@@ -48242,16 +48632,17 @@
         <v>350</v>
       </c>
       <c r="AX245" t="n">
-        <v>0.06831267367328536</v>
+        <v>5250</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>0.1899075580291117</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="b">
         <v>0</v>
       </c>
-      <c r="B246" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B246" t="inlineStr"/>
       <c r="C246" t="n">
         <v>4821.6</v>
       </c>
@@ -48436,7 +48827,10 @@
         <v>350</v>
       </c>
       <c r="AX246" t="n">
-        <v>0.5628173230062034</v>
+        <v>5250</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>0.6367160718991279</v>
       </c>
     </row>
     <row r="247">
@@ -48634,16 +49028,17 @@
         <v>950</v>
       </c>
       <c r="AX247" t="n">
-        <v>0.9870483170201657</v>
+        <v>14250</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>0.8036921611253137</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="b">
         <v>0</v>
       </c>
-      <c r="B248" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B248" t="inlineStr"/>
       <c r="C248" t="n">
         <v>8265.6</v>
       </c>
@@ -48828,7 +49223,10 @@
         <v>600</v>
       </c>
       <c r="AX248" t="n">
-        <v>0.003115984987672357</v>
+        <v>9000</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>0.03864480577514112</v>
       </c>
     </row>
     <row r="249">
@@ -49026,7 +49424,10 @@
         <v>500</v>
       </c>
       <c r="AX249" t="n">
-        <v>0.96701806245808</v>
+        <v>7500</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>0.6176986953483482</v>
       </c>
     </row>
     <row r="250">
@@ -49224,7 +49625,10 @@
         <v>950</v>
       </c>
       <c r="AX250" t="n">
-        <v>0.9941825582158362</v>
+        <v>14250</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>0.8667713646561753</v>
       </c>
     </row>
     <row r="251">
@@ -49422,7 +49826,10 @@
         <v>950</v>
       </c>
       <c r="AX251" t="n">
-        <v>0.2899479197957354</v>
+        <v>14250</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>0.6246569259235838</v>
       </c>
     </row>
     <row r="252">
@@ -49620,7 +50027,10 @@
         <v>650</v>
       </c>
       <c r="AX252" t="n">
-        <v>0.9801526259513486</v>
+        <v>9750</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>0.5767582227138706</v>
       </c>
     </row>
     <row r="253">
@@ -49818,16 +50228,17 @@
         <v>950</v>
       </c>
       <c r="AX253" t="n">
-        <v>0.993540410865994</v>
+        <v>14250</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>0.9065295310006558</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="b">
         <v>0</v>
       </c>
-      <c r="B254" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B254" t="inlineStr"/>
       <c r="C254" t="n">
         <v>6199.2</v>
       </c>
@@ -50012,16 +50423,17 @@
         <v>450</v>
       </c>
       <c r="AX254" t="n">
-        <v>0.1801785590118675</v>
+        <v>6750</v>
+      </c>
+      <c r="AY254" t="n">
+        <v>0.6503501076693917</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="b">
         <v>0</v>
       </c>
-      <c r="B255" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B255" t="inlineStr"/>
       <c r="C255" t="n">
         <v>6199.2</v>
       </c>
@@ -50210,16 +50622,17 @@
         <v>450</v>
       </c>
       <c r="AX255" t="n">
-        <v>0.08022391619205269</v>
+        <v>6750</v>
+      </c>
+      <c r="AY255" t="n">
+        <v>0.5272303517229239</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="b">
         <v>0</v>
       </c>
-      <c r="B256" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B256" t="inlineStr"/>
       <c r="C256" t="n">
         <v>8265.6</v>
       </c>
@@ -50404,16 +50817,17 @@
         <v>600</v>
       </c>
       <c r="AX256" t="n">
-        <v>0.02385006452655138</v>
+        <v>9000</v>
+      </c>
+      <c r="AY256" t="n">
+        <v>0.2657446725534547</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="b">
         <v>0</v>
       </c>
-      <c r="B257" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B257" t="inlineStr"/>
       <c r="C257" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -50598,16 +51012,17 @@
         <v>700</v>
       </c>
       <c r="AX257" t="n">
-        <v>0.02379621269906604</v>
+        <v>10500</v>
+      </c>
+      <c r="AY257" t="n">
+        <v>0.1873550211076331</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="b">
         <v>0</v>
       </c>
-      <c r="B258" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B258" t="inlineStr"/>
       <c r="C258" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -50790,16 +51205,17 @@
         <v>700</v>
       </c>
       <c r="AX258" t="n">
-        <v>0.02510922454639913</v>
+        <v>10500</v>
+      </c>
+      <c r="AY258" t="n">
+        <v>0.2719416704998379</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="b">
         <v>0</v>
       </c>
-      <c r="B259" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B259" t="inlineStr"/>
       <c r="C259" t="n">
         <v>13087.2</v>
       </c>
@@ -50984,16 +51400,17 @@
         <v>950</v>
       </c>
       <c r="AX259" t="n">
-        <v>0.1463639992736917</v>
+        <v>14250</v>
+      </c>
+      <c r="AY259" t="n">
+        <v>0.4234485349324866</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="b">
         <v>0</v>
       </c>
-      <c r="B260" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B260" t="inlineStr"/>
       <c r="C260" t="n">
         <v>4821.6</v>
       </c>
@@ -51178,16 +51595,17 @@
         <v>350</v>
       </c>
       <c r="AX260" t="n">
-        <v>0.03490579565060192</v>
+        <v>5250</v>
+      </c>
+      <c r="AY260" t="n">
+        <v>0.1102637127429525</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="b">
         <v>0</v>
       </c>
-      <c r="B261" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B261" t="inlineStr"/>
       <c r="C261" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -51372,7 +51790,10 @@
         <v>400</v>
       </c>
       <c r="AX261" t="n">
-        <v>0.05237928402037514</v>
+        <v>6000</v>
+      </c>
+      <c r="AY261" t="n">
+        <v>0.2811130209667866</v>
       </c>
     </row>
     <row r="262">
@@ -51570,16 +51991,17 @@
         <v>700</v>
       </c>
       <c r="AX262" t="n">
-        <v>0.9796868672104957</v>
+        <v>10500</v>
+      </c>
+      <c r="AY262" t="n">
+        <v>0.5707033553436818</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="b">
         <v>0</v>
       </c>
-      <c r="B263" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B263" t="inlineStr"/>
       <c r="C263" t="n">
         <v>6199.2</v>
       </c>
@@ -51764,16 +52186,17 @@
         <v>450</v>
       </c>
       <c r="AX263" t="n">
-        <v>0.0557254384858924</v>
+        <v>6750</v>
+      </c>
+      <c r="AY263" t="n">
+        <v>0.5096184543808561</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="b">
         <v>0</v>
       </c>
-      <c r="B264" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B264" t="inlineStr"/>
       <c r="C264" t="n">
         <v>13087.2</v>
       </c>
@@ -51956,16 +52379,17 @@
         <v>950</v>
       </c>
       <c r="AX264" t="n">
-        <v>0.01310795276615606</v>
+        <v>14250</v>
+      </c>
+      <c r="AY264" t="n">
+        <v>0.153684927140393</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="b">
         <v>0</v>
       </c>
-      <c r="B265" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B265" t="inlineStr"/>
       <c r="C265" t="n">
         <v>4821.6</v>
       </c>
@@ -52150,16 +52574,17 @@
         <v>350</v>
       </c>
       <c r="AX265" t="n">
-        <v>0.1513888477145417</v>
+        <v>5250</v>
+      </c>
+      <c r="AY265" t="n">
+        <v>0.3892848773030693</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="b">
         <v>0</v>
       </c>
-      <c r="B266" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B266" t="inlineStr"/>
       <c r="C266" t="n">
         <v>8265.6</v>
       </c>
@@ -52342,7 +52767,10 @@
         <v>600</v>
       </c>
       <c r="AX266" t="n">
-        <v>0.1081784950248865</v>
+        <v>9000</v>
+      </c>
+      <c r="AY266" t="n">
+        <v>0.774300306144759</v>
       </c>
     </row>
     <row r="267">
@@ -52540,7 +52968,10 @@
         <v>600</v>
       </c>
       <c r="AX267" t="n">
-        <v>0.9686951650466575</v>
+        <v>9000</v>
+      </c>
+      <c r="AY267" t="n">
+        <v>0.6351592567494451</v>
       </c>
     </row>
     <row r="268">
@@ -52738,16 +53169,17 @@
         <v>600</v>
       </c>
       <c r="AX268" t="n">
-        <v>0.9626608584587056</v>
+        <v>9000</v>
+      </c>
+      <c r="AY268" t="n">
+        <v>0.6543181951664054</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="b">
         <v>0</v>
       </c>
-      <c r="B269" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B269" t="inlineStr"/>
       <c r="C269" t="n">
         <v>8265.6</v>
       </c>
@@ -52928,7 +53360,10 @@
         <v>600</v>
       </c>
       <c r="AX269" t="n">
-        <v>0.001143914111975938</v>
+        <v>9000</v>
+      </c>
+      <c r="AY269" t="n">
+        <v>0.01794406682334412</v>
       </c>
     </row>
     <row r="270">
@@ -53126,7 +53561,10 @@
         <v>700</v>
       </c>
       <c r="AX270" t="n">
-        <v>0.9857016637888852</v>
+        <v>10500</v>
+      </c>
+      <c r="AY270" t="n">
+        <v>0.594616409600954</v>
       </c>
     </row>
     <row r="271">
@@ -53324,16 +53762,17 @@
         <v>650</v>
       </c>
       <c r="AX271" t="n">
-        <v>0.9969087730767813</v>
+        <v>9750</v>
+      </c>
+      <c r="AY271" t="n">
+        <v>0.8350331818674801</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="b">
         <v>0</v>
       </c>
-      <c r="B272" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B272" t="inlineStr"/>
       <c r="C272" t="n">
         <v>4821.6</v>
       </c>
@@ -53518,16 +53957,17 @@
         <v>350</v>
       </c>
       <c r="AX272" t="n">
-        <v>0.01496223139488265</v>
+        <v>5250</v>
+      </c>
+      <c r="AY272" t="n">
+        <v>0.07260575901812659</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="b">
         <v>0</v>
       </c>
-      <c r="B273" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B273" t="inlineStr"/>
       <c r="C273" t="n">
         <v>8265.6</v>
       </c>
@@ -53712,16 +54152,17 @@
         <v>600</v>
       </c>
       <c r="AX273" t="n">
-        <v>0.1270801123281784</v>
+        <v>9000</v>
+      </c>
+      <c r="AY273" t="n">
+        <v>0.5176337773786259</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="b">
         <v>0</v>
       </c>
-      <c r="B274" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B274" t="inlineStr"/>
       <c r="C274" t="n">
         <v>4821.6</v>
       </c>
@@ -53906,16 +54347,17 @@
         <v>350</v>
       </c>
       <c r="AX274" t="n">
-        <v>0.1221397325085795</v>
+        <v>5250</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>0.5522471196352536</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="b">
         <v>0</v>
       </c>
-      <c r="B275" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B275" t="inlineStr"/>
       <c r="C275" t="n">
         <v>8265.6</v>
       </c>
@@ -54098,7 +54540,10 @@
         <v>600</v>
       </c>
       <c r="AX275" t="n">
-        <v>0.3141440699577212</v>
+        <v>9000</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>0.9082214691314262</v>
       </c>
     </row>
     <row r="276">
@@ -54296,7 +54741,10 @@
         <v>550</v>
       </c>
       <c r="AX276" t="n">
-        <v>0.9860235997364682</v>
+        <v>8250</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>0.5630433307217468</v>
       </c>
     </row>
     <row r="277">
@@ -54494,16 +54942,17 @@
         <v>400</v>
       </c>
       <c r="AX277" t="n">
-        <v>0.2207792663073297</v>
+        <v>6000</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>0.2375440158402102</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="b">
         <v>0</v>
       </c>
-      <c r="B278" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B278" t="inlineStr"/>
       <c r="C278" t="n">
         <v>6888</v>
       </c>
@@ -54692,7 +55141,10 @@
         <v>500</v>
       </c>
       <c r="AX278" t="n">
-        <v>0.4176299446342053</v>
+        <v>7500</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>0.7139624646990024</v>
       </c>
     </row>
     <row r="279">
@@ -54890,16 +55342,17 @@
         <v>450</v>
       </c>
       <c r="AX279" t="n">
-        <v>0.9998293738688124</v>
+        <v>6750</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>0.6631757082111436</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="b">
         <v>0</v>
       </c>
-      <c r="B280" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B280" t="inlineStr"/>
       <c r="C280" t="n">
         <v>6199.2</v>
       </c>
@@ -55084,7 +55537,10 @@
         <v>450</v>
       </c>
       <c r="AX280" t="n">
-        <v>0.04265969940893349</v>
+        <v>6750</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>0.440733107183993</v>
       </c>
     </row>
     <row r="281">
@@ -55282,16 +55738,17 @@
         <v>600</v>
       </c>
       <c r="AX281" t="n">
-        <v>0.9878485779252186</v>
+        <v>9000</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>0.8642552666934444</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="b">
         <v>0</v>
       </c>
-      <c r="B282" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B282" t="inlineStr"/>
       <c r="C282" t="n">
         <v>4821.6</v>
       </c>
@@ -55476,16 +55933,17 @@
         <v>350</v>
       </c>
       <c r="AX282" t="n">
-        <v>0.0147581464217218</v>
+        <v>5250</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>0.112458281149574</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="b">
         <v>0</v>
       </c>
-      <c r="B283" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B283" t="inlineStr"/>
       <c r="C283" t="n">
         <v>8954.4</v>
       </c>
@@ -55670,16 +56128,17 @@
         <v>650</v>
       </c>
       <c r="AX283" t="n">
-        <v>0.03858619460904095</v>
+        <v>9750</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>0.222366207061452</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="b">
         <v>0</v>
       </c>
-      <c r="B284" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B284" t="inlineStr"/>
       <c r="C284" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -55864,16 +56323,17 @@
         <v>700</v>
       </c>
       <c r="AX284" t="n">
-        <v>0.05930728790162913</v>
+        <v>10500</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>0.2852993078667221</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="b">
         <v>0</v>
       </c>
-      <c r="B285" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B285" t="inlineStr"/>
       <c r="C285" t="n">
         <v>8954.4</v>
       </c>
@@ -56056,7 +56516,10 @@
         <v>650</v>
       </c>
       <c r="AX285" t="n">
-        <v>0.3484116968390476</v>
+        <v>9750</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>0.4977413415395206</v>
       </c>
     </row>
     <row r="286">
@@ -56254,7 +56717,10 @@
         <v>600</v>
       </c>
       <c r="AX286" t="n">
-        <v>0.9776757589010333</v>
+        <v>9000</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>0.6002926278186429</v>
       </c>
     </row>
     <row r="287">
@@ -56452,16 +56918,17 @@
         <v>400</v>
       </c>
       <c r="AX287" t="n">
-        <v>0.5661994963417688</v>
+        <v>6000</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>0.631891744550197</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="b">
         <v>0</v>
       </c>
-      <c r="B288" t="n">
-        <v>7500</v>
-      </c>
+      <c r="B288" t="inlineStr"/>
       <c r="C288" t="n">
         <v>7576.8</v>
       </c>
@@ -56646,7 +57113,10 @@
         <v>550</v>
       </c>
       <c r="AX288" t="n">
-        <v>0.4638954834084194</v>
+        <v>8250</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>0.5282672289153456</v>
       </c>
     </row>
     <row r="289">
@@ -56844,16 +57314,17 @@
         <v>950</v>
       </c>
       <c r="AX289" t="n">
-        <v>0.5316903233095832</v>
+        <v>14250</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>0.8900057765576616</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="b">
         <v>0</v>
       </c>
-      <c r="B290" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B290" t="inlineStr"/>
       <c r="C290" t="n">
         <v>6199.2</v>
       </c>
@@ -57038,16 +57509,17 @@
         <v>450</v>
       </c>
       <c r="AX290" t="n">
-        <v>0.004777325207625978</v>
+        <v>6750</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>0.07029826824597731</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="b">
         <v>0</v>
       </c>
-      <c r="B291" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B291" t="inlineStr"/>
       <c r="C291" t="n">
         <v>8954.4</v>
       </c>
@@ -57232,16 +57704,17 @@
         <v>650</v>
       </c>
       <c r="AX291" t="n">
-        <v>0.209661726188718</v>
+        <v>9750</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>0.5103498797059348</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="b">
         <v>0</v>
       </c>
-      <c r="B292" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B292" t="inlineStr"/>
       <c r="C292" t="n">
         <v>4821.6</v>
       </c>
@@ -57424,16 +57897,17 @@
         <v>350</v>
       </c>
       <c r="AX292" t="n">
-        <v>0.003529785537321042</v>
+        <v>5250</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>0.01519517364657367</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="b">
         <v>0</v>
       </c>
-      <c r="B293" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B293" t="inlineStr"/>
       <c r="C293" t="n">
         <v>8954.4</v>
       </c>
@@ -57618,16 +58092,17 @@
         <v>650</v>
       </c>
       <c r="AX293" t="n">
-        <v>0.4526160469937002</v>
+        <v>9750</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>0.5535392022774827</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="b">
         <v>0</v>
       </c>
-      <c r="B294" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B294" t="inlineStr"/>
       <c r="C294" t="n">
         <v>8954.4</v>
       </c>
@@ -57810,16 +58285,17 @@
         <v>650</v>
       </c>
       <c r="AX294" t="n">
-        <v>0.06996846272748439</v>
+        <v>9750</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>0.3252384089936182</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="b">
         <v>0</v>
       </c>
-      <c r="B295" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B295" t="inlineStr"/>
       <c r="C295" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -58002,16 +58478,17 @@
         <v>700</v>
       </c>
       <c r="AX295" t="n">
-        <v>0.006363283518992229</v>
+        <v>10500</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>0.04193106346329358</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="b">
         <v>0</v>
       </c>
-      <c r="B296" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B296" t="inlineStr"/>
       <c r="C296" t="n">
         <v>8265.6</v>
       </c>
@@ -58194,7 +58671,10 @@
         <v>600</v>
       </c>
       <c r="AX296" t="n">
-        <v>0.05371609141313368</v>
+        <v>9000</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>0.4482010885499806</v>
       </c>
     </row>
     <row r="297">
@@ -58392,16 +58872,17 @@
         <v>650</v>
       </c>
       <c r="AX297" t="n">
-        <v>0.981193969371503</v>
+        <v>9750</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>0.6900029318635587</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="b">
         <v>0</v>
       </c>
-      <c r="B298" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B298" t="inlineStr"/>
       <c r="C298" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -58586,7 +59067,10 @@
         <v>400</v>
       </c>
       <c r="AX298" t="n">
-        <v>0.1248956692900521</v>
+        <v>6000</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>0.435780559848966</v>
       </c>
     </row>
     <row r="299">
@@ -58784,7 +59268,10 @@
         <v>350</v>
       </c>
       <c r="AX299" t="n">
-        <v>0.03498297835347468</v>
+        <v>5250</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>0.5808897420425585</v>
       </c>
     </row>
     <row r="300">
@@ -58982,7 +59469,10 @@
         <v>700</v>
       </c>
       <c r="AX300" t="n">
-        <v>0.07059596084833343</v>
+        <v>10500</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>0.2409610679417385</v>
       </c>
     </row>
     <row r="301">
@@ -59180,16 +59670,17 @@
         <v>450</v>
       </c>
       <c r="AX301" t="n">
-        <v>0.995778049712143</v>
+        <v>6750</v>
+      </c>
+      <c r="AY301" t="n">
+        <v>0.796000493743151</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="b">
         <v>0</v>
       </c>
-      <c r="B302" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B302" t="inlineStr"/>
       <c r="C302" t="n">
         <v>8265.6</v>
       </c>
@@ -59374,16 +59865,17 @@
         <v>600</v>
       </c>
       <c r="AX302" t="n">
-        <v>0.04550718323434057</v>
+        <v>9000</v>
+      </c>
+      <c r="AY302" t="n">
+        <v>0.3351606994232377</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="b">
         <v>0</v>
       </c>
-      <c r="B303" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B303" t="inlineStr"/>
       <c r="C303" t="n">
         <v>8265.6</v>
       </c>
@@ -59568,16 +60060,17 @@
         <v>600</v>
       </c>
       <c r="AX303" t="n">
-        <v>0.01804485319910547</v>
+        <v>9000</v>
+      </c>
+      <c r="AY303" t="n">
+        <v>0.2171191297998975</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="b">
         <v>0</v>
       </c>
-      <c r="B304" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B304" t="inlineStr"/>
       <c r="C304" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -59762,16 +60255,17 @@
         <v>400</v>
       </c>
       <c r="AX304" t="n">
-        <v>0.07654362296712448</v>
+        <v>6000</v>
+      </c>
+      <c r="AY304" t="n">
+        <v>0.5548899750937945</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="b">
         <v>0</v>
       </c>
-      <c r="B305" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B305" t="inlineStr"/>
       <c r="C305" t="n">
         <v>8954.4</v>
       </c>
@@ -59956,7 +60450,10 @@
         <v>650</v>
       </c>
       <c r="AX305" t="n">
-        <v>0.008811580926535651</v>
+        <v>9750</v>
+      </c>
+      <c r="AY305" t="n">
+        <v>0.07671188511114926</v>
       </c>
     </row>
     <row r="306">
@@ -60154,16 +60651,17 @@
         <v>450</v>
       </c>
       <c r="AX306" t="n">
-        <v>0.9870623232975342</v>
+        <v>6750</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>0.4876963434603013</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="b">
         <v>0</v>
       </c>
-      <c r="B307" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B307" t="inlineStr"/>
       <c r="C307" t="n">
         <v>8265.6</v>
       </c>
@@ -60348,16 +60846,17 @@
         <v>600</v>
       </c>
       <c r="AX307" t="n">
-        <v>0.2172297160773851</v>
+        <v>9000</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>0.7527955331818137</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="b">
         <v>0</v>
       </c>
-      <c r="B308" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B308" t="inlineStr"/>
       <c r="C308" t="n">
         <v>6199.2</v>
       </c>
@@ -60546,16 +61045,17 @@
         <v>450</v>
       </c>
       <c r="AX308" t="n">
-        <v>0.8058715604482286</v>
+        <v>6750</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>0.852444792698284</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="b">
         <v>0</v>
       </c>
-      <c r="B309" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B309" t="inlineStr"/>
       <c r="C309" t="n">
         <v>8954.4</v>
       </c>
@@ -60740,16 +61240,17 @@
         <v>650</v>
       </c>
       <c r="AX309" t="n">
-        <v>0.01850120852126349</v>
+        <v>9750</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>0.06901901066357612</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="b">
         <v>0</v>
       </c>
-      <c r="B310" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B310" t="inlineStr"/>
       <c r="C310" t="n">
         <v>13087.2</v>
       </c>
@@ -60934,16 +61435,17 @@
         <v>950</v>
       </c>
       <c r="AX310" t="n">
-        <v>0.01424932744672512</v>
+        <v>14250</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>0.1621781347567566</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="b">
         <v>0</v>
       </c>
-      <c r="B311" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B311" t="inlineStr"/>
       <c r="C311" t="n">
         <v>8954.4</v>
       </c>
@@ -61128,16 +61630,17 @@
         <v>650</v>
       </c>
       <c r="AX311" t="n">
-        <v>0.42370705118237</v>
+        <v>9750</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>0.4983980182604943</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="b">
         <v>0</v>
       </c>
-      <c r="B312" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B312" t="inlineStr"/>
       <c r="C312" t="n">
         <v>8954.4</v>
       </c>
@@ -61322,7 +61825,10 @@
         <v>650</v>
       </c>
       <c r="AX312" t="n">
-        <v>0.6736656995024149</v>
+        <v>9750</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>0.8986500878782667</v>
       </c>
     </row>
     <row r="313">
@@ -61520,16 +62026,17 @@
         <v>600</v>
       </c>
       <c r="AX313" t="n">
-        <v>0.5679105687907998</v>
+        <v>9000</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>0.5089893446300202</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="b">
         <v>0</v>
       </c>
-      <c r="B314" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B314" t="inlineStr"/>
       <c r="C314" t="n">
         <v>8265.6</v>
       </c>
@@ -61714,7 +62221,10 @@
         <v>600</v>
       </c>
       <c r="AX314" t="n">
-        <v>0.09253863763630837</v>
+        <v>9000</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>0.6425938459632154</v>
       </c>
     </row>
     <row r="315">
@@ -61912,16 +62422,17 @@
         <v>450</v>
       </c>
       <c r="AX315" t="n">
-        <v>0.9992705841191792</v>
+        <v>6750</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>0.8068965550731811</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="b">
         <v>0</v>
       </c>
-      <c r="B316" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B316" t="inlineStr"/>
       <c r="C316" t="n">
         <v>8265.6</v>
       </c>
@@ -62106,16 +62617,17 @@
         <v>600</v>
       </c>
       <c r="AX316" t="n">
-        <v>0.07968387473804589</v>
+        <v>9000</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>0.5534749420392827</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="b">
         <v>0</v>
       </c>
-      <c r="B317" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B317" t="inlineStr"/>
       <c r="C317" t="n">
         <v>8954.4</v>
       </c>
@@ -62300,7 +62812,10 @@
         <v>650</v>
       </c>
       <c r="AX317" t="n">
-        <v>0.1471419264465775</v>
+        <v>9750</v>
+      </c>
+      <c r="AY317" t="n">
+        <v>0.6012931101224828</v>
       </c>
     </row>
     <row r="318">
@@ -62498,16 +63013,17 @@
         <v>600</v>
       </c>
       <c r="AX318" t="n">
-        <v>0.7719446462880838</v>
+        <v>9000</v>
+      </c>
+      <c r="AY318" t="n">
+        <v>0.691921651371499</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="b">
         <v>0</v>
       </c>
-      <c r="B319" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B319" t="inlineStr"/>
       <c r="C319" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -62692,16 +63208,17 @@
         <v>700</v>
       </c>
       <c r="AX319" t="n">
-        <v>0.03549844159235768</v>
+        <v>10500</v>
+      </c>
+      <c r="AY319" t="n">
+        <v>0.1196530665911165</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="b">
         <v>0</v>
       </c>
-      <c r="B320" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B320" t="inlineStr"/>
       <c r="C320" t="n">
         <v>8265.6</v>
       </c>
@@ -62886,16 +63403,17 @@
         <v>600</v>
       </c>
       <c r="AX320" t="n">
-        <v>0.1876972146135496</v>
+        <v>9000</v>
+      </c>
+      <c r="AY320" t="n">
+        <v>0.8431421928931434</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="b">
         <v>0</v>
       </c>
-      <c r="B321" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B321" t="inlineStr"/>
       <c r="C321" t="n">
         <v>8265.6</v>
       </c>
@@ -63080,16 +63598,17 @@
         <v>600</v>
       </c>
       <c r="AX321" t="n">
-        <v>0.0661842597990672</v>
+        <v>9000</v>
+      </c>
+      <c r="AY321" t="n">
+        <v>0.4139772202127879</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="b">
         <v>0</v>
       </c>
-      <c r="B322" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B322" t="inlineStr"/>
       <c r="C322" t="n">
         <v>8265.6</v>
       </c>
@@ -63274,16 +63793,17 @@
         <v>600</v>
       </c>
       <c r="AX322" t="n">
-        <v>0.07498541123773149</v>
+        <v>9000</v>
+      </c>
+      <c r="AY322" t="n">
+        <v>0.3436649167067669</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="b">
         <v>0</v>
       </c>
-      <c r="B323" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B323" t="inlineStr"/>
       <c r="C323" t="n">
         <v>8265.6</v>
       </c>
@@ -63468,7 +63988,10 @@
         <v>600</v>
       </c>
       <c r="AX323" t="n">
-        <v>0.04729837146000349</v>
+        <v>9000</v>
+      </c>
+      <c r="AY323" t="n">
+        <v>0.3972953049691172</v>
       </c>
     </row>
     <row r="324">
@@ -63666,16 +64189,17 @@
         <v>700</v>
       </c>
       <c r="AX324" t="n">
-        <v>0.998707923017452</v>
+        <v>10500</v>
+      </c>
+      <c r="AY324" t="n">
+        <v>0.9222982195404098</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="b">
         <v>0</v>
       </c>
-      <c r="B325" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B325" t="inlineStr"/>
       <c r="C325" t="n">
         <v>6888</v>
       </c>
@@ -63860,16 +64384,17 @@
         <v>500</v>
       </c>
       <c r="AX325" t="n">
-        <v>0.6963977150361568</v>
+        <v>7500</v>
+      </c>
+      <c r="AY325" t="n">
+        <v>0.8044438206474892</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="b">
         <v>0</v>
       </c>
-      <c r="B326" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B326" t="inlineStr"/>
       <c r="C326" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -64052,16 +64577,17 @@
         <v>400</v>
       </c>
       <c r="AX326" t="n">
-        <v>0.1032527106162592</v>
+        <v>6000</v>
+      </c>
+      <c r="AY326" t="n">
+        <v>0.3554571772066997</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="b">
         <v>0</v>
       </c>
-      <c r="B327" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B327" t="inlineStr"/>
       <c r="C327" t="n">
         <v>8954.4</v>
       </c>
@@ -64246,16 +64772,17 @@
         <v>650</v>
       </c>
       <c r="AX327" t="n">
-        <v>0.2301725387670948</v>
+        <v>9750</v>
+      </c>
+      <c r="AY327" t="n">
+        <v>0.5345217492698902</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="b">
         <v>0</v>
       </c>
-      <c r="B328" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B328" t="inlineStr"/>
       <c r="C328" t="n">
         <v>8265.6</v>
       </c>
@@ -64440,16 +64967,17 @@
         <v>600</v>
       </c>
       <c r="AX328" t="n">
-        <v>0.06378029549152395</v>
+        <v>9000</v>
+      </c>
+      <c r="AY328" t="n">
+        <v>0.4733306670370069</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="b">
         <v>0</v>
       </c>
-      <c r="B329" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B329" t="inlineStr"/>
       <c r="C329" t="n">
         <v>8265.6</v>
       </c>
@@ -64634,16 +65162,17 @@
         <v>600</v>
       </c>
       <c r="AX329" t="n">
-        <v>0.01883994504756723</v>
+        <v>9000</v>
+      </c>
+      <c r="AY329" t="n">
+        <v>0.1501312726006878</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="b">
         <v>0</v>
       </c>
-      <c r="B330" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B330" t="inlineStr"/>
       <c r="C330" t="n">
         <v>8954.4</v>
       </c>
@@ -64826,16 +65355,17 @@
         <v>650</v>
       </c>
       <c r="AX330" t="n">
-        <v>0.08325111391549289</v>
+        <v>9750</v>
+      </c>
+      <c r="AY330" t="n">
+        <v>0.3061576112746389</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="b">
         <v>0</v>
       </c>
-      <c r="B331" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B331" t="inlineStr"/>
       <c r="C331" t="n">
         <v>8265.6</v>
       </c>
@@ -65018,7 +65548,10 @@
         <v>600</v>
       </c>
       <c r="AX331" t="n">
-        <v>0.02542725332338331</v>
+        <v>9000</v>
+      </c>
+      <c r="AY331" t="n">
+        <v>0.3455590476634899</v>
       </c>
     </row>
     <row r="332">
@@ -65216,7 +65749,10 @@
         <v>450</v>
       </c>
       <c r="AX332" t="n">
-        <v>0.9919250161999417</v>
+        <v>6750</v>
+      </c>
+      <c r="AY332" t="n">
+        <v>0.8314203323763845</v>
       </c>
     </row>
     <row r="333">
@@ -65414,16 +65950,17 @@
         <v>500</v>
       </c>
       <c r="AX333" t="n">
-        <v>0.9747026084138538</v>
+        <v>7500</v>
+      </c>
+      <c r="AY333" t="n">
+        <v>0.5948015253887774</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="b">
         <v>0</v>
       </c>
-      <c r="B334" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B334" t="inlineStr"/>
       <c r="C334" t="n">
         <v>8954.4</v>
       </c>
@@ -65608,16 +66145,17 @@
         <v>650</v>
       </c>
       <c r="AX334" t="n">
-        <v>0.3823477485372824</v>
+        <v>9750</v>
+      </c>
+      <c r="AY334" t="n">
+        <v>0.6112476911047218</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="b">
         <v>0</v>
       </c>
-      <c r="B335" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B335" t="inlineStr"/>
       <c r="C335" t="n">
         <v>8265.6</v>
       </c>
@@ -65802,7 +66340,10 @@
         <v>600</v>
       </c>
       <c r="AX335" t="n">
-        <v>0.2439151700831293</v>
+        <v>9000</v>
+      </c>
+      <c r="AY335" t="n">
+        <v>0.8499256873551032</v>
       </c>
     </row>
     <row r="336">
@@ -66000,16 +66541,17 @@
         <v>350</v>
       </c>
       <c r="AX336" t="n">
-        <v>0.9915188629908871</v>
+        <v>5250</v>
+      </c>
+      <c r="AY336" t="n">
+        <v>0.5961258404649912</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="b">
         <v>0</v>
       </c>
-      <c r="B337" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B337" t="inlineStr"/>
       <c r="C337" t="n">
         <v>4821.6</v>
       </c>
@@ -66194,16 +66736,17 @@
         <v>350</v>
       </c>
       <c r="AX337" t="n">
-        <v>0.1098239655866994</v>
+        <v>5250</v>
+      </c>
+      <c r="AY337" t="n">
+        <v>0.2993486534784605</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="b">
         <v>0</v>
       </c>
-      <c r="B338" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B338" t="inlineStr"/>
       <c r="C338" t="n">
         <v>8265.6</v>
       </c>
@@ -66388,16 +66931,17 @@
         <v>600</v>
       </c>
       <c r="AX338" t="n">
-        <v>0.01358542332287837</v>
+        <v>9000</v>
+      </c>
+      <c r="AY338" t="n">
+        <v>0.3569337733080184</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="b">
         <v>0</v>
       </c>
-      <c r="B339" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B339" t="inlineStr"/>
       <c r="C339" t="n">
         <v>8265.6</v>
       </c>
@@ -66586,16 +67130,17 @@
         <v>600</v>
       </c>
       <c r="AX339" t="n">
-        <v>0.02814906603700287</v>
+        <v>9000</v>
+      </c>
+      <c r="AY339" t="n">
+        <v>0.3443953832494649</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="b">
         <v>0</v>
       </c>
-      <c r="B340" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B340" t="inlineStr"/>
       <c r="C340" t="n">
         <v>4821.6</v>
       </c>
@@ -66784,16 +67329,17 @@
         <v>350</v>
       </c>
       <c r="AX340" t="n">
-        <v>0.5705320663398574</v>
+        <v>5250</v>
+      </c>
+      <c r="AY340" t="n">
+        <v>0.7533689826295022</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="b">
         <v>0</v>
       </c>
-      <c r="B341" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B341" t="inlineStr"/>
       <c r="C341" t="n">
         <v>8265.6</v>
       </c>
@@ -66978,16 +67524,17 @@
         <v>600</v>
       </c>
       <c r="AX341" t="n">
-        <v>0.03377657478430984</v>
+        <v>9000</v>
+      </c>
+      <c r="AY341" t="n">
+        <v>0.3378791384587426</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="b">
         <v>0</v>
       </c>
-      <c r="B342" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B342" t="inlineStr"/>
       <c r="C342" t="n">
         <v>8265.6</v>
       </c>
@@ -67172,16 +67719,17 @@
         <v>600</v>
       </c>
       <c r="AX342" t="n">
-        <v>0.1191631112430318</v>
+        <v>9000</v>
+      </c>
+      <c r="AY342" t="n">
+        <v>0.7273563730147705</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="b">
         <v>0</v>
       </c>
-      <c r="B343" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B343" t="inlineStr"/>
       <c r="C343" t="n">
         <v>4821.6</v>
       </c>
@@ -67366,7 +67914,10 @@
         <v>350</v>
       </c>
       <c r="AX343" t="n">
-        <v>0.01115377978831035</v>
+        <v>5250</v>
+      </c>
+      <c r="AY343" t="n">
+        <v>0.1293004659451928</v>
       </c>
     </row>
     <row r="344">
@@ -67564,16 +68115,17 @@
         <v>600</v>
       </c>
       <c r="AX344" t="n">
-        <v>0.6901582695755012</v>
+        <v>9000</v>
+      </c>
+      <c r="AY344" t="n">
+        <v>0.9080272318077688</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="b">
         <v>0</v>
       </c>
-      <c r="B345" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B345" t="inlineStr"/>
       <c r="C345" t="n">
         <v>8265.6</v>
       </c>
@@ -67758,16 +68310,17 @@
         <v>600</v>
       </c>
       <c r="AX345" t="n">
-        <v>0.04437313858361907</v>
+        <v>9000</v>
+      </c>
+      <c r="AY345" t="n">
+        <v>0.4670048604608767</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="b">
         <v>0</v>
       </c>
-      <c r="B346" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B346" t="inlineStr"/>
       <c r="C346" t="n">
         <v>8265.6</v>
       </c>
@@ -67952,16 +68505,17 @@
         <v>600</v>
       </c>
       <c r="AX346" t="n">
-        <v>0.1006396373337333</v>
+        <v>9000</v>
+      </c>
+      <c r="AY346" t="n">
+        <v>0.6204260462003871</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="b">
         <v>0</v>
       </c>
-      <c r="B347" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B347" t="inlineStr"/>
       <c r="C347" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -68144,16 +68698,17 @@
         <v>700</v>
       </c>
       <c r="AX347" t="n">
-        <v>0.3233276880752258</v>
+        <v>10500</v>
+      </c>
+      <c r="AY347" t="n">
+        <v>0.6058708245941298</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="b">
         <v>0</v>
       </c>
-      <c r="B348" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B348" t="inlineStr"/>
       <c r="C348" t="n">
         <v>4821.6</v>
       </c>
@@ -68338,7 +68893,10 @@
         <v>350</v>
       </c>
       <c r="AX348" t="n">
-        <v>0.1384586798249034</v>
+        <v>5250</v>
+      </c>
+      <c r="AY348" t="n">
+        <v>0.5876428715481358</v>
       </c>
     </row>
     <row r="349">
@@ -68536,7 +69094,10 @@
         <v>600</v>
       </c>
       <c r="AX349" t="n">
-        <v>0.9845017634074682</v>
+        <v>9000</v>
+      </c>
+      <c r="AY349" t="n">
+        <v>0.7309885516298031</v>
       </c>
     </row>
     <row r="350">
@@ -68734,16 +69295,17 @@
         <v>600</v>
       </c>
       <c r="AX350" t="n">
-        <v>0.9878894970014116</v>
+        <v>9000</v>
+      </c>
+      <c r="AY350" t="n">
+        <v>0.8073137267987675</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="b">
         <v>0</v>
       </c>
-      <c r="B351" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B351" t="inlineStr"/>
       <c r="C351" t="n">
         <v>8954.4</v>
       </c>
@@ -68928,7 +69490,10 @@
         <v>650</v>
       </c>
       <c r="AX351" t="n">
-        <v>0.1863339944168193</v>
+        <v>9750</v>
+      </c>
+      <c r="AY351" t="n">
+        <v>0.4107366472270029</v>
       </c>
     </row>
     <row r="352">
@@ -69126,16 +69691,17 @@
         <v>700</v>
       </c>
       <c r="AX352" t="n">
-        <v>0.7360668289084208</v>
+        <v>10500</v>
+      </c>
+      <c r="AY352" t="n">
+        <v>0.1309460453279799</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="b">
         <v>0</v>
       </c>
-      <c r="B353" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B353" t="inlineStr"/>
       <c r="C353" t="n">
         <v>8954.4</v>
       </c>
@@ -69318,7 +69884,10 @@
         <v>650</v>
       </c>
       <c r="AX353" t="n">
-        <v>0.10844588175937</v>
+        <v>9750</v>
+      </c>
+      <c r="AY353" t="n">
+        <v>0.3094971240961051</v>
       </c>
     </row>
     <row r="354">
@@ -69516,16 +70085,17 @@
         <v>550</v>
       </c>
       <c r="AX354" t="n">
-        <v>0.4052502491572799</v>
+        <v>8250</v>
+      </c>
+      <c r="AY354" t="n">
+        <v>0.8756751878141286</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="b">
         <v>0</v>
       </c>
-      <c r="B355" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B355" t="inlineStr"/>
       <c r="C355" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -69710,16 +70280,17 @@
         <v>400</v>
       </c>
       <c r="AX355" t="n">
-        <v>0.03312292120462557</v>
+        <v>6000</v>
+      </c>
+      <c r="AY355" t="n">
+        <v>0.1304161370641826</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="b">
         <v>0</v>
       </c>
-      <c r="B356" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B356" t="inlineStr"/>
       <c r="C356" t="n">
         <v>8265.6</v>
       </c>
@@ -69902,16 +70473,17 @@
         <v>600</v>
       </c>
       <c r="AX356" t="n">
-        <v>0.2152843541683639</v>
+        <v>9000</v>
+      </c>
+      <c r="AY356" t="n">
+        <v>0.8270832529989515</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="b">
         <v>0</v>
       </c>
-      <c r="B357" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B357" t="inlineStr"/>
       <c r="C357" t="n">
         <v>6199.2</v>
       </c>
@@ -70096,16 +70668,17 @@
         <v>450</v>
       </c>
       <c r="AX357" t="n">
-        <v>0.007640593838041654</v>
+        <v>6750</v>
+      </c>
+      <c r="AY357" t="n">
+        <v>0.1786315826767859</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="b">
         <v>0</v>
       </c>
-      <c r="B358" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B358" t="inlineStr"/>
       <c r="C358" t="n">
         <v>8954.4</v>
       </c>
@@ -70290,16 +70863,17 @@
         <v>650</v>
       </c>
       <c r="AX358" t="n">
-        <v>0.03662478961178131</v>
+        <v>9750</v>
+      </c>
+      <c r="AY358" t="n">
+        <v>0.2952282358701771</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="b">
         <v>0</v>
       </c>
-      <c r="B359" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B359" t="inlineStr"/>
       <c r="C359" t="n">
         <v>4821.6</v>
       </c>
@@ -70484,16 +71058,17 @@
         <v>350</v>
       </c>
       <c r="AX359" t="n">
-        <v>0.02754980554448162</v>
+        <v>5250</v>
+      </c>
+      <c r="AY359" t="n">
+        <v>0.09737154940346072</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="b">
         <v>0</v>
       </c>
-      <c r="B360" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B360" t="inlineStr"/>
       <c r="C360" t="n">
         <v>4821.6</v>
       </c>
@@ -70678,16 +71253,17 @@
         <v>350</v>
       </c>
       <c r="AX360" t="n">
-        <v>0.03779214967113438</v>
+        <v>5250</v>
+      </c>
+      <c r="AY360" t="n">
+        <v>0.1900372973940794</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="b">
         <v>0</v>
       </c>
-      <c r="B361" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B361" t="inlineStr"/>
       <c r="C361" t="n">
         <v>6199.2</v>
       </c>
@@ -70872,16 +71448,17 @@
         <v>450</v>
       </c>
       <c r="AX361" t="n">
-        <v>0.100128593029946</v>
+        <v>6750</v>
+      </c>
+      <c r="AY361" t="n">
+        <v>0.4577877732992771</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="b">
         <v>0</v>
       </c>
-      <c r="B362" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B362" t="inlineStr"/>
       <c r="C362" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -71066,7 +71643,10 @@
         <v>400</v>
       </c>
       <c r="AX362" t="n">
-        <v>0.04833399488161526</v>
+        <v>6000</v>
+      </c>
+      <c r="AY362" t="n">
+        <v>0.2004856383193528</v>
       </c>
     </row>
     <row r="363">
@@ -71264,7 +71844,10 @@
         <v>400</v>
       </c>
       <c r="AX363" t="n">
-        <v>0.988262523727371</v>
+        <v>6000</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>0.3137234634889968</v>
       </c>
     </row>
     <row r="364">
@@ -71462,16 +72045,17 @@
         <v>600</v>
       </c>
       <c r="AX364" t="n">
-        <v>0.5353540430547108</v>
+        <v>9000</v>
+      </c>
+      <c r="AY364" t="n">
+        <v>0.8865054643803066</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="b">
         <v>0</v>
       </c>
-      <c r="B365" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B365" t="inlineStr"/>
       <c r="C365" t="n">
         <v>8265.6</v>
       </c>
@@ -71656,16 +72240,17 @@
         <v>600</v>
       </c>
       <c r="AX365" t="n">
-        <v>0.1049560183372825</v>
+        <v>9000</v>
+      </c>
+      <c r="AY365" t="n">
+        <v>0.7437100198555611</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="b">
         <v>0</v>
       </c>
-      <c r="B366" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B366" t="inlineStr"/>
       <c r="C366" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -71850,7 +72435,10 @@
         <v>700</v>
       </c>
       <c r="AX366" t="n">
-        <v>0.2388303674569074</v>
+        <v>10500</v>
+      </c>
+      <c r="AY366" t="n">
+        <v>0.7642009993903416</v>
       </c>
     </row>
     <row r="367">
@@ -72048,7 +72636,10 @@
         <v>600</v>
       </c>
       <c r="AX367" t="n">
-        <v>0.9695484229736963</v>
+        <v>9000</v>
+      </c>
+      <c r="AY367" t="n">
+        <v>0.5658873613118481</v>
       </c>
     </row>
     <row r="368">
@@ -72246,16 +72837,17 @@
         <v>600</v>
       </c>
       <c r="AX368" t="n">
-        <v>0.9675026327657634</v>
+        <v>9000</v>
+      </c>
+      <c r="AY368" t="n">
+        <v>0.3592984053520575</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="b">
         <v>0</v>
       </c>
-      <c r="B369" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B369" t="inlineStr"/>
       <c r="C369" t="n">
         <v>4821.6</v>
       </c>
@@ -72436,16 +73028,17 @@
         <v>350</v>
       </c>
       <c r="AX369" t="n">
-        <v>0.1774237249413813</v>
+        <v>5250</v>
+      </c>
+      <c r="AY369" t="n">
+        <v>0.3615303724193451</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="b">
         <v>0</v>
       </c>
-      <c r="B370" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B370" t="inlineStr"/>
       <c r="C370" t="n">
         <v>4821.6</v>
       </c>
@@ -72630,7 +73223,10 @@
         <v>350</v>
       </c>
       <c r="AX370" t="n">
-        <v>0.03423854985702959</v>
+        <v>5250</v>
+      </c>
+      <c r="AY370" t="n">
+        <v>0.1483864815323057</v>
       </c>
     </row>
     <row r="371">
@@ -72828,16 +73424,17 @@
         <v>950</v>
       </c>
       <c r="AX371" t="n">
-        <v>0.004338954559787798</v>
+        <v>14250</v>
+      </c>
+      <c r="AY371" t="n">
+        <v>0.08279661172482972</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="b">
         <v>0</v>
       </c>
-      <c r="B372" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B372" t="inlineStr"/>
       <c r="C372" t="n">
         <v>6888</v>
       </c>
@@ -73016,7 +73613,10 @@
         <v>500</v>
       </c>
       <c r="AX372" t="n">
-        <v>0.1546050371131361</v>
+        <v>7500</v>
+      </c>
+      <c r="AY372" t="n">
+        <v>0.3751198191254162</v>
       </c>
     </row>
     <row r="373">
@@ -73214,16 +73814,17 @@
         <v>400</v>
       </c>
       <c r="AX373" t="n">
-        <v>0.997628676366236</v>
+        <v>6000</v>
+      </c>
+      <c r="AY373" t="n">
+        <v>0.7266243826093984</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="b">
         <v>0</v>
       </c>
-      <c r="B374" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B374" t="inlineStr"/>
       <c r="C374" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -73408,16 +74009,17 @@
         <v>700</v>
       </c>
       <c r="AX374" t="n">
-        <v>0.2827721025612082</v>
+        <v>10500</v>
+      </c>
+      <c r="AY374" t="n">
+        <v>0.7245103325044399</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="b">
         <v>0</v>
       </c>
-      <c r="B375" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B375" t="inlineStr"/>
       <c r="C375" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -73602,16 +74204,17 @@
         <v>400</v>
       </c>
       <c r="AX375" t="n">
-        <v>0.110025997529731</v>
+        <v>6000</v>
+      </c>
+      <c r="AY375" t="n">
+        <v>0.463348451267051</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="b">
         <v>0</v>
       </c>
-      <c r="B376" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B376" t="inlineStr"/>
       <c r="C376" t="n">
         <v>6199.2</v>
       </c>
@@ -73800,7 +74403,10 @@
         <v>450</v>
       </c>
       <c r="AX376" t="n">
-        <v>0.5923664877311446</v>
+        <v>6750</v>
+      </c>
+      <c r="AY376" t="n">
+        <v>0.8016047058344752</v>
       </c>
     </row>
     <row r="377">
@@ -73998,7 +74604,10 @@
         <v>600</v>
       </c>
       <c r="AX377" t="n">
-        <v>0.4054586682657955</v>
+        <v>9000</v>
+      </c>
+      <c r="AY377" t="n">
+        <v>0.7201888132669479</v>
       </c>
     </row>
     <row r="378">
@@ -74196,16 +74805,17 @@
         <v>600</v>
       </c>
       <c r="AX378" t="n">
-        <v>0.9269380465921098</v>
+        <v>9000</v>
+      </c>
+      <c r="AY378" t="n">
+        <v>0.4733078522187375</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="b">
         <v>0</v>
       </c>
-      <c r="B379" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B379" t="inlineStr"/>
       <c r="C379" t="n">
         <v>8954.4</v>
       </c>
@@ -74390,16 +75000,17 @@
         <v>650</v>
       </c>
       <c r="AX379" t="n">
-        <v>0.2313482926593649</v>
+        <v>9750</v>
+      </c>
+      <c r="AY379" t="n">
+        <v>0.4694999671938102</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="b">
         <v>0</v>
       </c>
-      <c r="B380" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B380" t="inlineStr"/>
       <c r="C380" t="n">
         <v>8265.6</v>
       </c>
@@ -74584,16 +75195,17 @@
         <v>600</v>
       </c>
       <c r="AX380" t="n">
-        <v>0.1219825597142018</v>
+        <v>9000</v>
+      </c>
+      <c r="AY380" t="n">
+        <v>0.5898147382882167</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="b">
         <v>0</v>
       </c>
-      <c r="B381" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B381" t="inlineStr"/>
       <c r="C381" t="n">
         <v>8265.6</v>
       </c>
@@ -74778,16 +75390,17 @@
         <v>600</v>
       </c>
       <c r="AX381" t="n">
-        <v>0.009826908872959455</v>
+        <v>9000</v>
+      </c>
+      <c r="AY381" t="n">
+        <v>0.1343486786287759</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="b">
         <v>0</v>
       </c>
-      <c r="B382" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B382" t="inlineStr"/>
       <c r="C382" t="n">
         <v>8265.6</v>
       </c>
@@ -74968,7 +75581,10 @@
         <v>600</v>
       </c>
       <c r="AX382" t="n">
-        <v>0.03433161918292276</v>
+        <v>9000</v>
+      </c>
+      <c r="AY382" t="n">
+        <v>0.2413821987151284</v>
       </c>
     </row>
     <row r="383">
@@ -75166,7 +75782,10 @@
         <v>450</v>
       </c>
       <c r="AX383" t="n">
-        <v>0.9976214831019882</v>
+        <v>6750</v>
+      </c>
+      <c r="AY383" t="n">
+        <v>0.299122472682946</v>
       </c>
     </row>
     <row r="384">
@@ -75364,16 +75983,17 @@
         <v>400</v>
       </c>
       <c r="AX384" t="n">
-        <v>0.454402348749138</v>
+        <v>6000</v>
+      </c>
+      <c r="AY384" t="n">
+        <v>0.7372235814122391</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="b">
         <v>0</v>
       </c>
-      <c r="B385" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B385" t="inlineStr"/>
       <c r="C385" t="n">
         <v>6199.2</v>
       </c>
@@ -75558,16 +76178,17 @@
         <v>450</v>
       </c>
       <c r="AX385" t="n">
-        <v>0.04233776246369911</v>
+        <v>6750</v>
+      </c>
+      <c r="AY385" t="n">
+        <v>0.3635861316987853</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="b">
         <v>0</v>
       </c>
-      <c r="B386" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B386" t="inlineStr"/>
       <c r="C386" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -75752,16 +76373,17 @@
         <v>400</v>
       </c>
       <c r="AX386" t="n">
-        <v>0.05106645389830992</v>
+        <v>6000</v>
+      </c>
+      <c r="AY386" t="n">
+        <v>0.3207267052459598</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="b">
         <v>0</v>
       </c>
-      <c r="B387" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B387" t="inlineStr"/>
       <c r="C387" t="n">
         <v>8265.6</v>
       </c>
@@ -75946,16 +76568,17 @@
         <v>600</v>
       </c>
       <c r="AX387" t="n">
-        <v>0.01962412714044687</v>
+        <v>9000</v>
+      </c>
+      <c r="AY387" t="n">
+        <v>0.4522538490378752</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="b">
         <v>0</v>
       </c>
-      <c r="B388" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B388" t="inlineStr"/>
       <c r="C388" t="n">
         <v>13087.2</v>
       </c>
@@ -76140,16 +76763,17 @@
         <v>950</v>
       </c>
       <c r="AX388" t="n">
-        <v>0.2933942003231797</v>
+        <v>14250</v>
+      </c>
+      <c r="AY388" t="n">
+        <v>0.7546116779615458</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="b">
         <v>0</v>
       </c>
-      <c r="B389" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B389" t="inlineStr"/>
       <c r="C389" t="n">
         <v>6199.2</v>
       </c>
@@ -76334,7 +76958,10 @@
         <v>450</v>
       </c>
       <c r="AX389" t="n">
-        <v>0.05767025929567068</v>
+        <v>6750</v>
+      </c>
+      <c r="AY389" t="n">
+        <v>0.4640172634591075</v>
       </c>
     </row>
     <row r="390">
@@ -76532,16 +77159,17 @@
         <v>700</v>
       </c>
       <c r="AX390" t="n">
-        <v>0.3415537849970098</v>
+        <v>10500</v>
+      </c>
+      <c r="AY390" t="n">
+        <v>0.124258062906278</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="b">
         <v>0</v>
       </c>
-      <c r="B391" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B391" t="inlineStr"/>
       <c r="C391" t="n">
         <v>6199.2</v>
       </c>
@@ -76726,16 +77354,17 @@
         <v>450</v>
       </c>
       <c r="AX391" t="n">
-        <v>0.1116554277651446</v>
+        <v>6750</v>
+      </c>
+      <c r="AY391" t="n">
+        <v>0.5571028980080264</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="b">
         <v>0</v>
       </c>
-      <c r="B392" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B392" t="inlineStr"/>
       <c r="C392" t="n">
         <v>6199.2</v>
       </c>
@@ -76920,16 +77549,17 @@
         <v>450</v>
       </c>
       <c r="AX392" t="n">
-        <v>0.6213269450552823</v>
+        <v>6750</v>
+      </c>
+      <c r="AY392" t="n">
+        <v>0.8746915964375667</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="b">
         <v>0</v>
       </c>
-      <c r="B393" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B393" t="inlineStr"/>
       <c r="C393" t="n">
         <v>4821.6</v>
       </c>
@@ -77114,16 +77744,17 @@
         <v>350</v>
       </c>
       <c r="AX393" t="n">
-        <v>0.2343679434552109</v>
+        <v>5250</v>
+      </c>
+      <c r="AY393" t="n">
+        <v>0.620798586645978</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="b">
         <v>0</v>
       </c>
-      <c r="B394" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B394" t="inlineStr"/>
       <c r="C394" t="n">
         <v>6888</v>
       </c>
@@ -77308,16 +77939,17 @@
         <v>500</v>
       </c>
       <c r="AX394" t="n">
-        <v>0.03587673776652456</v>
+        <v>7500</v>
+      </c>
+      <c r="AY394" t="n">
+        <v>0.09574212862880796</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="b">
         <v>0</v>
       </c>
-      <c r="B395" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B395" t="inlineStr"/>
       <c r="C395" t="n">
         <v>6199.2</v>
       </c>
@@ -77502,16 +78134,17 @@
         <v>450</v>
       </c>
       <c r="AX395" t="n">
-        <v>0.04980156186176243</v>
+        <v>6750</v>
+      </c>
+      <c r="AY395" t="n">
+        <v>0.2728685789292424</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="b">
         <v>0</v>
       </c>
-      <c r="B396" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B396" t="inlineStr"/>
       <c r="C396" t="n">
         <v>8265.6</v>
       </c>
@@ -77696,16 +78329,17 @@
         <v>600</v>
       </c>
       <c r="AX396" t="n">
-        <v>0.02037285617645024</v>
+        <v>9000</v>
+      </c>
+      <c r="AY396" t="n">
+        <v>0.228065252592298</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="b">
         <v>0</v>
       </c>
-      <c r="B397" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B397" t="inlineStr"/>
       <c r="C397" t="n">
         <v>8954.4</v>
       </c>
@@ -77886,16 +78520,17 @@
         <v>650</v>
       </c>
       <c r="AX397" t="n">
-        <v>0.03953487464944178</v>
+        <v>9750</v>
+      </c>
+      <c r="AY397" t="n">
+        <v>0.317336197578622</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="b">
         <v>0</v>
       </c>
-      <c r="B398" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B398" t="inlineStr"/>
       <c r="C398" t="n">
         <v>8265.6</v>
       </c>
@@ -78078,16 +78713,17 @@
         <v>600</v>
       </c>
       <c r="AX398" t="n">
-        <v>0.01896943853639765</v>
+        <v>9000</v>
+      </c>
+      <c r="AY398" t="n">
+        <v>0.3435329544285973</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="b">
         <v>0</v>
       </c>
-      <c r="B399" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B399" t="inlineStr"/>
       <c r="C399" t="n">
         <v>8265.6</v>
       </c>
@@ -78272,16 +78908,17 @@
         <v>600</v>
       </c>
       <c r="AX399" t="n">
-        <v>0.02446615987565096</v>
+        <v>9000</v>
+      </c>
+      <c r="AY399" t="n">
+        <v>0.2078966915661122</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="b">
         <v>0</v>
       </c>
-      <c r="B400" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B400" t="inlineStr"/>
       <c r="C400" t="n">
         <v>4821.6</v>
       </c>
@@ -78466,16 +79103,17 @@
         <v>350</v>
       </c>
       <c r="AX400" t="n">
-        <v>0.07511730499043166</v>
+        <v>5250</v>
+      </c>
+      <c r="AY400" t="n">
+        <v>0.2161803356547771</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="b">
         <v>0</v>
       </c>
-      <c r="B401" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B401" t="inlineStr"/>
       <c r="C401" t="n">
         <v>8265.6</v>
       </c>
@@ -78664,16 +79302,17 @@
         <v>600</v>
       </c>
       <c r="AX401" t="n">
-        <v>0.043212390111103</v>
+        <v>9000</v>
+      </c>
+      <c r="AY401" t="n">
+        <v>0.4535980747062966</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="b">
         <v>0</v>
       </c>
-      <c r="B402" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B402" t="inlineStr"/>
       <c r="C402" t="n">
         <v>8954.4</v>
       </c>
@@ -78858,16 +79497,17 @@
         <v>650</v>
       </c>
       <c r="AX402" t="n">
-        <v>0.1733626009138433</v>
+        <v>9750</v>
+      </c>
+      <c r="AY402" t="n">
+        <v>0.3145341410633851</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="b">
         <v>0</v>
       </c>
-      <c r="B403" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B403" t="inlineStr"/>
       <c r="C403" t="n">
         <v>13087.2</v>
       </c>
@@ -79048,16 +79688,17 @@
         <v>950</v>
       </c>
       <c r="AX403" t="n">
-        <v>0.05345055068219801</v>
+        <v>14250</v>
+      </c>
+      <c r="AY403" t="n">
+        <v>0.5620826049935789</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="b">
         <v>0</v>
       </c>
-      <c r="B404" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B404" t="inlineStr"/>
       <c r="C404" t="n">
         <v>8265.6</v>
       </c>
@@ -79242,16 +79883,17 @@
         <v>600</v>
       </c>
       <c r="AX404" t="n">
-        <v>0.04783018998815701</v>
+        <v>9000</v>
+      </c>
+      <c r="AY404" t="n">
+        <v>0.612900134885053</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="b">
         <v>0</v>
       </c>
-      <c r="B405" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B405" t="inlineStr"/>
       <c r="C405" t="n">
         <v>8265.6</v>
       </c>
@@ -79434,16 +80076,17 @@
         <v>600</v>
       </c>
       <c r="AX405" t="n">
-        <v>0.0604798704931258</v>
+        <v>9000</v>
+      </c>
+      <c r="AY405" t="n">
+        <v>0.3784948113535759</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="b">
         <v>0</v>
       </c>
-      <c r="B406" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B406" t="inlineStr"/>
       <c r="C406" t="n">
         <v>4821.6</v>
       </c>
@@ -79626,16 +80269,17 @@
         <v>350</v>
       </c>
       <c r="AX406" t="n">
-        <v>0.01386914432250683</v>
+        <v>5250</v>
+      </c>
+      <c r="AY406" t="n">
+        <v>0.05819771621728862</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="b">
         <v>0</v>
       </c>
-      <c r="B407" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B407" t="inlineStr"/>
       <c r="C407" t="n">
         <v>6199.2</v>
       </c>
@@ -79814,7 +80458,10 @@
         <v>450</v>
       </c>
       <c r="AX407" t="n">
-        <v>0.01193896059847648</v>
+        <v>6750</v>
+      </c>
+      <c r="AY407" t="n">
+        <v>0.2402323620628138</v>
       </c>
     </row>
     <row r="408">
@@ -80012,7 +80659,10 @@
         <v>400</v>
       </c>
       <c r="AX408" t="n">
-        <v>0.9959839214936467</v>
+        <v>6000</v>
+      </c>
+      <c r="AY408" t="n">
+        <v>0.3250804349575107</v>
       </c>
     </row>
     <row r="409">
@@ -80210,16 +80860,17 @@
         <v>700</v>
       </c>
       <c r="AX409" t="n">
-        <v>0.24716127974823</v>
+        <v>10500</v>
+      </c>
+      <c r="AY409" t="n">
+        <v>0.7842295058516168</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="b">
         <v>0</v>
       </c>
-      <c r="B410" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B410" t="inlineStr"/>
       <c r="C410" t="n">
         <v>8954.4</v>
       </c>
@@ -80404,16 +81055,17 @@
         <v>650</v>
       </c>
       <c r="AX410" t="n">
-        <v>0.2880886982694876</v>
+        <v>9750</v>
+      </c>
+      <c r="AY410" t="n">
+        <v>0.7771618460242478</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="b">
         <v>0</v>
       </c>
-      <c r="B411" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B411" t="inlineStr"/>
       <c r="C411" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -80596,7 +81248,10 @@
         <v>700</v>
       </c>
       <c r="AX411" t="n">
-        <v>0.03444622006220734</v>
+        <v>10500</v>
+      </c>
+      <c r="AY411" t="n">
+        <v>0.1907874641533649</v>
       </c>
     </row>
     <row r="412">
@@ -80794,16 +81449,17 @@
         <v>650</v>
       </c>
       <c r="AX412" t="n">
-        <v>0.9936479945419342</v>
+        <v>9750</v>
+      </c>
+      <c r="AY412" t="n">
+        <v>0.9093018556371579</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="b">
         <v>0</v>
       </c>
-      <c r="B413" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B413" t="inlineStr"/>
       <c r="C413" t="n">
         <v>4821.6</v>
       </c>
@@ -80984,16 +81640,17 @@
         <v>350</v>
       </c>
       <c r="AX413" t="n">
-        <v>0.0387061074546494</v>
+        <v>5250</v>
+      </c>
+      <c r="AY413" t="n">
+        <v>0.1772398303251612</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="b">
         <v>0</v>
       </c>
-      <c r="B414" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B414" t="inlineStr"/>
       <c r="C414" t="n">
         <v>6199.2</v>
       </c>
@@ -81176,16 +81833,17 @@
         <v>450</v>
       </c>
       <c r="AX414" t="n">
-        <v>0.06508812737705347</v>
+        <v>6750</v>
+      </c>
+      <c r="AY414" t="n">
+        <v>0.1468557401435622</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="b">
         <v>0</v>
       </c>
-      <c r="B415" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B415" t="inlineStr"/>
       <c r="C415" t="n">
         <v>8954.4</v>
       </c>
@@ -81370,7 +82028,10 @@
         <v>650</v>
       </c>
       <c r="AX415" t="n">
-        <v>0.6220170343867678</v>
+        <v>9750</v>
+      </c>
+      <c r="AY415" t="n">
+        <v>0.7271711928270397</v>
       </c>
     </row>
     <row r="416">
@@ -81568,16 +82229,17 @@
         <v>700</v>
       </c>
       <c r="AX416" t="n">
-        <v>0.9950015084035493</v>
+        <v>10500</v>
+      </c>
+      <c r="AY416" t="n">
+        <v>0.8180211500944907</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="b">
         <v>0</v>
       </c>
-      <c r="B417" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B417" t="inlineStr"/>
       <c r="C417" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -81760,16 +82422,17 @@
         <v>700</v>
       </c>
       <c r="AX417" t="n">
-        <v>0.02898231476510349</v>
+        <v>10500</v>
+      </c>
+      <c r="AY417" t="n">
+        <v>0.2534911838295348</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="b">
         <v>0</v>
       </c>
-      <c r="B418" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B418" t="inlineStr"/>
       <c r="C418" t="n">
         <v>4821.6</v>
       </c>
@@ -81954,16 +82617,17 @@
         <v>350</v>
       </c>
       <c r="AX418" t="n">
-        <v>0.3206613480101392</v>
+        <v>5250</v>
+      </c>
+      <c r="AY418" t="n">
+        <v>0.5121899764460995</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="b">
         <v>0</v>
       </c>
-      <c r="B419" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B419" t="inlineStr"/>
       <c r="C419" t="n">
         <v>4821.6</v>
       </c>
@@ -82148,7 +82812,10 @@
         <v>350</v>
       </c>
       <c r="AX419" t="n">
-        <v>0.05113851588831515</v>
+        <v>5250</v>
+      </c>
+      <c r="AY419" t="n">
+        <v>0.2361808375123316</v>
       </c>
     </row>
     <row r="420">
@@ -82346,16 +83013,17 @@
         <v>450</v>
       </c>
       <c r="AX420" t="n">
-        <v>0.6455601295463509</v>
+        <v>6750</v>
+      </c>
+      <c r="AY420" t="n">
+        <v>0.1542170610927478</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="b">
         <v>0</v>
       </c>
-      <c r="B421" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B421" t="inlineStr"/>
       <c r="C421" t="n">
         <v>6888</v>
       </c>
@@ -82544,16 +83212,17 @@
         <v>500</v>
       </c>
       <c r="AX421" t="n">
-        <v>0.290128441396159</v>
+        <v>7500</v>
+      </c>
+      <c r="AY421" t="n">
+        <v>0.5819088830942647</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="b">
         <v>0</v>
       </c>
-      <c r="B422" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B422" t="inlineStr"/>
       <c r="C422" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -82738,16 +83407,17 @@
         <v>700</v>
       </c>
       <c r="AX422" t="n">
-        <v>0.04422018249807121</v>
+        <v>10500</v>
+      </c>
+      <c r="AY422" t="n">
+        <v>0.2258407259032046</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="b">
         <v>0</v>
       </c>
-      <c r="B423" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B423" t="inlineStr"/>
       <c r="C423" t="n">
         <v>8265.6</v>
       </c>
@@ -82932,16 +83602,17 @@
         <v>600</v>
       </c>
       <c r="AX423" t="n">
-        <v>0.1263999526873256</v>
+        <v>9000</v>
+      </c>
+      <c r="AY423" t="n">
+        <v>0.719928439952513</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="b">
         <v>0</v>
       </c>
-      <c r="B424" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B424" t="inlineStr"/>
       <c r="C424" t="n">
         <v>8265.6</v>
       </c>
@@ -83126,7 +83797,10 @@
         <v>600</v>
       </c>
       <c r="AX424" t="n">
-        <v>0.05853660840636566</v>
+        <v>9000</v>
+      </c>
+      <c r="AY424" t="n">
+        <v>0.5870929653336975</v>
       </c>
     </row>
     <row r="425">
@@ -83324,16 +83998,17 @@
         <v>450</v>
       </c>
       <c r="AX425" t="n">
-        <v>0.9433538255342621</v>
+        <v>6750</v>
+      </c>
+      <c r="AY425" t="n">
+        <v>0.4616693694917214</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="b">
         <v>0</v>
       </c>
-      <c r="B426" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B426" t="inlineStr"/>
       <c r="C426" t="n">
         <v>8954.4</v>
       </c>
@@ -83518,16 +84193,17 @@
         <v>650</v>
       </c>
       <c r="AX426" t="n">
-        <v>0.1457823659400615</v>
+        <v>9750</v>
+      </c>
+      <c r="AY426" t="n">
+        <v>0.5525203959179669</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="b">
         <v>0</v>
       </c>
-      <c r="B427" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B427" t="inlineStr"/>
       <c r="C427" t="n">
         <v>6199.2</v>
       </c>
@@ -83712,7 +84388,10 @@
         <v>450</v>
       </c>
       <c r="AX427" t="n">
-        <v>0.170881522792787</v>
+        <v>6750</v>
+      </c>
+      <c r="AY427" t="n">
+        <v>0.7207253776768245</v>
       </c>
     </row>
     <row r="428">
@@ -83910,7 +84589,10 @@
         <v>600</v>
       </c>
       <c r="AX428" t="n">
-        <v>0.1441782718612096</v>
+        <v>9000</v>
+      </c>
+      <c r="AY428" t="n">
+        <v>0.3668774877135717</v>
       </c>
     </row>
     <row r="429">
@@ -84108,16 +84790,17 @@
         <v>550</v>
       </c>
       <c r="AX429" t="n">
-        <v>0.9922276526053193</v>
+        <v>8250</v>
+      </c>
+      <c r="AY429" t="n">
+        <v>0.777081673332467</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="b">
         <v>0</v>
       </c>
-      <c r="B430" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B430" t="inlineStr"/>
       <c r="C430" t="n">
         <v>6199.2</v>
       </c>
@@ -84302,7 +84985,10 @@
         <v>450</v>
       </c>
       <c r="AX430" t="n">
-        <v>0.05373555615792667</v>
+        <v>6750</v>
+      </c>
+      <c r="AY430" t="n">
+        <v>0.2926251875698686</v>
       </c>
     </row>
     <row r="431">
@@ -84500,7 +85186,10 @@
         <v>600</v>
       </c>
       <c r="AX431" t="n">
-        <v>0.9751100991997166</v>
+        <v>9000</v>
+      </c>
+      <c r="AY431" t="n">
+        <v>0.5265003530767614</v>
       </c>
     </row>
     <row r="432">
@@ -84698,16 +85387,17 @@
         <v>700</v>
       </c>
       <c r="AX432" t="n">
-        <v>0.5524702029886769</v>
+        <v>10500</v>
+      </c>
+      <c r="AY432" t="n">
+        <v>0.4250431728757709</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="b">
         <v>0</v>
       </c>
-      <c r="B433" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B433" t="inlineStr"/>
       <c r="C433" t="n">
         <v>4821.6</v>
       </c>
@@ -84886,16 +85576,17 @@
         <v>350</v>
       </c>
       <c r="AX433" t="n">
-        <v>0.4096499067558743</v>
+        <v>5250</v>
+      </c>
+      <c r="AY433" t="n">
+        <v>0.5506025284115057</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="b">
         <v>0</v>
       </c>
-      <c r="B434" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B434" t="inlineStr"/>
       <c r="C434" t="n">
         <v>8265.6</v>
       </c>
@@ -85078,16 +85769,17 @@
         <v>600</v>
       </c>
       <c r="AX434" t="n">
-        <v>0.01077263258536203</v>
+        <v>9000</v>
+      </c>
+      <c r="AY434" t="n">
+        <v>0.1978496939698756</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="b">
         <v>0</v>
       </c>
-      <c r="B435" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B435" t="inlineStr"/>
       <c r="C435" t="n">
         <v>8265.6</v>
       </c>
@@ -85272,7 +85964,10 @@
         <v>600</v>
       </c>
       <c r="AX435" t="n">
-        <v>0.1954858017969601</v>
+        <v>9000</v>
+      </c>
+      <c r="AY435" t="n">
+        <v>0.7940225579721553</v>
       </c>
     </row>
     <row r="436">
@@ -85470,7 +86165,10 @@
         <v>600</v>
       </c>
       <c r="AX436" t="n">
-        <v>0.2624070141120698</v>
+        <v>9000</v>
+      </c>
+      <c r="AY436" t="n">
+        <v>0.6650862331990858</v>
       </c>
     </row>
     <row r="437">
@@ -85668,7 +86366,10 @@
         <v>600</v>
       </c>
       <c r="AX437" t="n">
-        <v>0.9917750265599614</v>
+        <v>9000</v>
+      </c>
+      <c r="AY437" t="n">
+        <v>0.8191097798652587</v>
       </c>
     </row>
     <row r="438">
@@ -85866,7 +86567,10 @@
         <v>600</v>
       </c>
       <c r="AX438" t="n">
-        <v>0.9925855501680507</v>
+        <v>9000</v>
+      </c>
+      <c r="AY438" t="n">
+        <v>0.7978790134157253</v>
       </c>
     </row>
     <row r="439">
@@ -86064,16 +86768,17 @@
         <v>650</v>
       </c>
       <c r="AX439" t="n">
-        <v>0.8730709337782764</v>
+        <v>9750</v>
+      </c>
+      <c r="AY439" t="n">
+        <v>0.2870662441382504</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="b">
         <v>0</v>
       </c>
-      <c r="B440" t="n">
-        <v>9700</v>
-      </c>
+      <c r="B440" t="inlineStr"/>
       <c r="C440" t="n">
         <v>9643.200000000001</v>
       </c>
@@ -86254,7 +86959,10 @@
         <v>700</v>
       </c>
       <c r="AX440" t="n">
-        <v>0.1526476187497021</v>
+        <v>10500</v>
+      </c>
+      <c r="AY440" t="n">
+        <v>0.5688932727380634</v>
       </c>
     </row>
     <row r="441">
@@ -86452,7 +87160,10 @@
         <v>450</v>
       </c>
       <c r="AX441" t="n">
-        <v>0.9851668431665253</v>
+        <v>6750</v>
+      </c>
+      <c r="AY441" t="n">
+        <v>0.506193723245183</v>
       </c>
     </row>
     <row r="442">
@@ -86650,16 +87361,17 @@
         <v>550</v>
       </c>
       <c r="AX442" t="n">
-        <v>0.05947990480352674</v>
+        <v>8250</v>
+      </c>
+      <c r="AY442" t="n">
+        <v>0.4283168878461856</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="b">
         <v>0</v>
       </c>
-      <c r="B443" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B443" t="inlineStr"/>
       <c r="C443" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -86844,7 +87556,10 @@
         <v>400</v>
       </c>
       <c r="AX443" t="n">
-        <v>0.03706369322302314</v>
+        <v>6000</v>
+      </c>
+      <c r="AY443" t="n">
+        <v>0.162188671869876</v>
       </c>
     </row>
     <row r="444">
@@ -87042,16 +87757,17 @@
         <v>350</v>
       </c>
       <c r="AX444" t="n">
-        <v>0.1039687954425682</v>
+        <v>5250</v>
+      </c>
+      <c r="AY444" t="n">
+        <v>0.2812016303875216</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="b">
         <v>0</v>
       </c>
-      <c r="B445" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B445" t="inlineStr"/>
       <c r="C445" t="n">
         <v>8265.6</v>
       </c>
@@ -87236,16 +87952,17 @@
         <v>600</v>
       </c>
       <c r="AX445" t="n">
-        <v>0.05142210380002278</v>
+        <v>9000</v>
+      </c>
+      <c r="AY445" t="n">
+        <v>0.5240058595304788</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="b">
         <v>0</v>
       </c>
-      <c r="B446" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B446" t="inlineStr"/>
       <c r="C446" t="n">
         <v>4821.6</v>
       </c>
@@ -87430,16 +88147,17 @@
         <v>350</v>
       </c>
       <c r="AX446" t="n">
-        <v>0.1339786809405593</v>
+        <v>5250</v>
+      </c>
+      <c r="AY446" t="n">
+        <v>0.3676454771121577</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="b">
         <v>0</v>
       </c>
-      <c r="B447" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B447" t="inlineStr"/>
       <c r="C447" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -87622,7 +88340,10 @@
         <v>400</v>
       </c>
       <c r="AX447" t="n">
-        <v>0.09458118120764014</v>
+        <v>6000</v>
+      </c>
+      <c r="AY447" t="n">
+        <v>0.3150726247565284</v>
       </c>
     </row>
     <row r="448">
@@ -87820,16 +88541,17 @@
         <v>850</v>
       </c>
       <c r="AX448" t="n">
-        <v>0.9974223067889707</v>
+        <v>12750</v>
+      </c>
+      <c r="AY448" t="n">
+        <v>0.4001245651309699</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="b">
         <v>0</v>
       </c>
-      <c r="B449" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B449" t="inlineStr"/>
       <c r="C449" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -88014,7 +88736,10 @@
         <v>400</v>
       </c>
       <c r="AX449" t="n">
-        <v>0.1742235402722123</v>
+        <v>6000</v>
+      </c>
+      <c r="AY449" t="n">
+        <v>0.6318676109561521</v>
       </c>
     </row>
     <row r="450">
@@ -88212,7 +88937,10 @@
         <v>600</v>
       </c>
       <c r="AX450" t="n">
-        <v>0.9951848875081037</v>
+        <v>9000</v>
+      </c>
+      <c r="AY450" t="n">
+        <v>0.7934813015256112</v>
       </c>
     </row>
     <row r="451">
@@ -88410,7 +89138,10 @@
         <v>600</v>
       </c>
       <c r="AX451" t="n">
-        <v>0.9592540257285574</v>
+        <v>9000</v>
+      </c>
+      <c r="AY451" t="n">
+        <v>0.6003873047428928</v>
       </c>
     </row>
     <row r="452">
@@ -88608,7 +89339,10 @@
         <v>600</v>
       </c>
       <c r="AX452" t="n">
-        <v>0.05063057351671928</v>
+        <v>9000</v>
+      </c>
+      <c r="AY452" t="n">
+        <v>0.3499306389526053</v>
       </c>
     </row>
     <row r="453">
@@ -88806,16 +89540,17 @@
         <v>650</v>
       </c>
       <c r="AX453" t="n">
-        <v>0.9740492229456302</v>
+        <v>9750</v>
+      </c>
+      <c r="AY453" t="n">
+        <v>0.6554076687488658</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="b">
         <v>0</v>
       </c>
-      <c r="B454" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B454" t="inlineStr"/>
       <c r="C454" t="n">
         <v>6199.2</v>
       </c>
@@ -89000,7 +89735,10 @@
         <v>450</v>
       </c>
       <c r="AX454" t="n">
-        <v>0.07225503204517462</v>
+        <v>6750</v>
+      </c>
+      <c r="AY454" t="n">
+        <v>0.5638545002705562</v>
       </c>
     </row>
     <row r="455">
@@ -89198,16 +89936,17 @@
         <v>450</v>
       </c>
       <c r="AX455" t="n">
-        <v>0.9601919136419258</v>
+        <v>6750</v>
+      </c>
+      <c r="AY455" t="n">
+        <v>0.6436345766876551</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="b">
         <v>0</v>
       </c>
-      <c r="B456" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B456" t="inlineStr"/>
       <c r="C456" t="n">
         <v>6199.2</v>
       </c>
@@ -89392,16 +90131,17 @@
         <v>450</v>
       </c>
       <c r="AX456" t="n">
-        <v>0.04355533712016956</v>
+        <v>6750</v>
+      </c>
+      <c r="AY456" t="n">
+        <v>0.3978731723486463</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="b">
         <v>0</v>
       </c>
-      <c r="B457" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B457" t="inlineStr"/>
       <c r="C457" t="n">
         <v>8265.6</v>
       </c>
@@ -89586,7 +90326,10 @@
         <v>600</v>
       </c>
       <c r="AX457" t="n">
-        <v>0.1034207710239073</v>
+        <v>9000</v>
+      </c>
+      <c r="AY457" t="n">
+        <v>0.636993060494209</v>
       </c>
     </row>
     <row r="458">
@@ -89784,16 +90527,17 @@
         <v>950</v>
       </c>
       <c r="AX458" t="n">
-        <v>0.9967538928596208</v>
+        <v>14250</v>
+      </c>
+      <c r="AY458" t="n">
+        <v>0.9295663973461936</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="b">
         <v>0</v>
       </c>
-      <c r="B459" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B459" t="inlineStr"/>
       <c r="C459" t="n">
         <v>4821.6</v>
       </c>
@@ -89982,16 +90726,17 @@
         <v>350</v>
       </c>
       <c r="AX459" t="n">
-        <v>0.4429278764464846</v>
+        <v>5250</v>
+      </c>
+      <c r="AY459" t="n">
+        <v>0.4170837222936825</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="b">
         <v>0</v>
       </c>
-      <c r="B460" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B460" t="inlineStr"/>
       <c r="C460" t="n">
         <v>8265.6</v>
       </c>
@@ -90176,16 +90921,17 @@
         <v>600</v>
       </c>
       <c r="AX460" t="n">
-        <v>0.06290206500130656</v>
+        <v>9000</v>
+      </c>
+      <c r="AY460" t="n">
+        <v>0.4358201644692176</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="b">
         <v>0</v>
       </c>
-      <c r="B461" t="n">
-        <v>8250</v>
-      </c>
+      <c r="B461" t="inlineStr"/>
       <c r="C461" t="n">
         <v>8265.6</v>
       </c>
@@ -90364,7 +91110,10 @@
         <v>600</v>
       </c>
       <c r="AX461" t="n">
-        <v>0.1682263852009037</v>
+        <v>9000</v>
+      </c>
+      <c r="AY461" t="n">
+        <v>0.7300345817431826</v>
       </c>
     </row>
     <row r="462">
@@ -90562,16 +91311,17 @@
         <v>600</v>
       </c>
       <c r="AX462" t="n">
-        <v>0.4178286559334764</v>
+        <v>9000</v>
+      </c>
+      <c r="AY462" t="n">
+        <v>0.7486345707737529</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="b">
         <v>0</v>
       </c>
-      <c r="B463" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B463" t="inlineStr"/>
       <c r="C463" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -90756,16 +91506,17 @@
         <v>400</v>
       </c>
       <c r="AX463" t="n">
-        <v>0.2206805041382943</v>
+        <v>6000</v>
+      </c>
+      <c r="AY463" t="n">
+        <v>0.523392983957046</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="b">
         <v>0</v>
       </c>
-      <c r="B464" t="n">
-        <v>7500</v>
-      </c>
+      <c r="B464" t="inlineStr"/>
       <c r="C464" t="n">
         <v>7576.8</v>
       </c>
@@ -90950,16 +91701,17 @@
         <v>550</v>
       </c>
       <c r="AX464" t="n">
-        <v>0.4668405529379879</v>
+        <v>8250</v>
+      </c>
+      <c r="AY464" t="n">
+        <v>0.874091422710051</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="b">
         <v>0</v>
       </c>
-      <c r="B465" t="n">
-        <v>4900</v>
-      </c>
+      <c r="B465" t="inlineStr"/>
       <c r="C465" t="n">
         <v>4821.6</v>
       </c>
@@ -91144,16 +91896,17 @@
         <v>350</v>
       </c>
       <c r="AX465" t="n">
-        <v>0.08036753114506653</v>
+        <v>5250</v>
+      </c>
+      <c r="AY465" t="n">
+        <v>0.2815333316214207</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="b">
         <v>0</v>
       </c>
-      <c r="B466" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B466" t="inlineStr"/>
       <c r="C466" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -91338,16 +92091,17 @@
         <v>400</v>
       </c>
       <c r="AX466" t="n">
-        <v>0.1777993298542673</v>
+        <v>6000</v>
+      </c>
+      <c r="AY466" t="n">
+        <v>0.6475605129430827</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="b">
         <v>0</v>
       </c>
-      <c r="B467" t="n">
-        <v>12950</v>
-      </c>
+      <c r="B467" t="inlineStr"/>
       <c r="C467" t="n">
         <v>13087.2</v>
       </c>
@@ -91532,16 +92286,17 @@
         <v>950</v>
       </c>
       <c r="AX467" t="n">
-        <v>0.001729086427035453</v>
+        <v>14250</v>
+      </c>
+      <c r="AY467" t="n">
+        <v>0.02158256257091987</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="b">
         <v>0</v>
       </c>
-      <c r="B468" t="n">
-        <v>7000</v>
-      </c>
+      <c r="B468" t="inlineStr"/>
       <c r="C468" t="n">
         <v>6888</v>
       </c>
@@ -91726,7 +92481,10 @@
         <v>500</v>
       </c>
       <c r="AX468" t="n">
-        <v>0.3350097853145298</v>
+        <v>7500</v>
+      </c>
+      <c r="AY468" t="n">
+        <v>0.3509417668320633</v>
       </c>
     </row>
     <row r="469">
@@ -91924,16 +92682,17 @@
         <v>700</v>
       </c>
       <c r="AX469" t="n">
-        <v>0.9419372042906924</v>
+        <v>10500</v>
+      </c>
+      <c r="AY469" t="n">
+        <v>0.2251868861845645</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="b">
         <v>0</v>
       </c>
-      <c r="B470" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B470" t="inlineStr"/>
       <c r="C470" t="n">
         <v>6199.2</v>
       </c>
@@ -92118,16 +92877,17 @@
         <v>450</v>
       </c>
       <c r="AX470" t="n">
-        <v>0.03255737540012994</v>
+        <v>6750</v>
+      </c>
+      <c r="AY470" t="n">
+        <v>0.4066025996628828</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="b">
         <v>0</v>
       </c>
-      <c r="B471" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B471" t="inlineStr"/>
       <c r="C471" t="n">
         <v>8954.4</v>
       </c>
@@ -92312,16 +93072,17 @@
         <v>650</v>
       </c>
       <c r="AX471" t="n">
-        <v>0.5035713057224974</v>
+        <v>9750</v>
+      </c>
+      <c r="AY471" t="n">
+        <v>0.7407016657274739</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="b">
         <v>0</v>
       </c>
-      <c r="B472" t="n">
-        <v>5550</v>
-      </c>
+      <c r="B472" t="inlineStr"/>
       <c r="C472" t="n">
         <v>5510.400000000001</v>
       </c>
@@ -92504,16 +93265,17 @@
         <v>400</v>
       </c>
       <c r="AX472" t="n">
-        <v>0.06775329839345151</v>
+        <v>6000</v>
+      </c>
+      <c r="AY472" t="n">
+        <v>0.2995730320526498</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="b">
         <v>0</v>
       </c>
-      <c r="B473" t="n">
-        <v>6250</v>
-      </c>
+      <c r="B473" t="inlineStr"/>
       <c r="C473" t="n">
         <v>6199.2</v>
       </c>
@@ -92696,16 +93458,17 @@
         <v>450</v>
       </c>
       <c r="AX473" t="n">
-        <v>0.07848252640597136</v>
+        <v>6750</v>
+      </c>
+      <c r="AY473" t="n">
+        <v>0.5020589788146048</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="b">
         <v>0</v>
       </c>
-      <c r="B474" t="n">
-        <v>9000</v>
-      </c>
+      <c r="B474" t="inlineStr"/>
       <c r="C474" t="n">
         <v>8954.4</v>
       </c>
@@ -92888,7 +93651,10 @@
         <v>650</v>
       </c>
       <c r="AX474" t="n">
-        <v>0.2029241993610125</v>
+        <v>9750</v>
+      </c>
+      <c r="AY474" t="n">
+        <v>0.5310417032380854</v>
       </c>
     </row>
   </sheetData>
